--- a/Шаблоны/Scenar3.xlsx
+++ b/Шаблоны/Scenar3.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VR_1264\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gerasimovskaya_1264\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7479FBAA-E2E6-48FC-B081-BFC9F4F4CEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4372" yWindow="3765" windowWidth="15271" windowHeight="9202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
     <sheet name="Выполнение" sheetId="3" r:id="rId2"/>
     <sheet name="Норматив" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -82,18 +80,353 @@
   </si>
   <si>
     <t>Сценарий №3 Вывод в ремонт трансформатора</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Оборудования</t>
+  </si>
+  <si>
+    <t>Тип Действия</t>
+  </si>
+  <si>
+    <t>Доп Свойство</t>
+  </si>
+  <si>
+    <t>Последовательность действий</t>
+  </si>
+  <si>
+    <t>Вид операции</t>
+  </si>
+  <si>
+    <t>Основная</t>
+  </si>
+  <si>
+    <t>Проверочная</t>
+  </si>
+  <si>
+    <t>ПОТ</t>
+  </si>
+  <si>
+    <t>Критическая</t>
+  </si>
+  <si>
+    <t>ОПУ_Часы</t>
+  </si>
+  <si>
+    <t>default_activate</t>
+  </si>
+  <si>
+    <t>Зафиксировать время.</t>
+  </si>
+  <si>
+    <t>Основная операция</t>
+  </si>
+  <si>
+    <t>На терминале горят светодиоды: Срабатывание защит В 35 Т1; Срабатывание защит ВЛ 35 Герасимовская – Тананыкская.</t>
+  </si>
+  <si>
+    <t>Проверочная операция</t>
+  </si>
+  <si>
+    <t>На терминале горит светодиод «МТЗ».</t>
+  </si>
+  <si>
+    <t>На терминале горит светодиод «МТЗ»</t>
+  </si>
+  <si>
+    <t>Отключить ключом управления выключатель В 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение выключателя В 35 Тананыкская по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления ЭМО и ЭМВ В 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления ЭМО и ЭМВ В 35 Тананыкская вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить выведенное состояние АВР 35 кВ.</t>
+  </si>
+  <si>
+    <t>Включить ключом управления выключатель В 35 Т1.</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение выключателя В 35 Т1 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>Проверить наличие нагрузки на В 35 Т1 по амперметру.</t>
+  </si>
+  <si>
+    <t>Осмотреть В 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>Проверить работу видеорегистратора. Взять видеорегистратор в руки, включить его, на экране увидеть изображение, повесить на грудь.</t>
+  </si>
+  <si>
+    <t>Отключить ключом управления ЛР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить отключенное положение ЛР 35 кВ Тананыкская по сигнальной лампе. </t>
+  </si>
+  <si>
+    <t>На ключ управления ЛР 35 Тананыкская вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить ключом управления ШР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ШР 35 Тананыкская по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления ШР 35 Тананыкская вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ЛР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ШР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления привода ЛР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления привода ЛР 35 Тананыкская вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления привода ШР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления привода ШР 35 Тананыкская повесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить диэлектрические перчатки на целостность.</t>
+  </si>
+  <si>
+    <t>Надеть диэлектрические перчатки.</t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения 35 кВ прикосновением к токоведущим частям, заведомо находящимся под напряжением – к жесткой ошиновке 35 кВ 2 секции шин.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на ЛР 35 Тананыкская в сторону В 35 Тананыкская в течении времени не менее 5 сек.</t>
+  </si>
+  <si>
+    <t>Произвести осмотр опорно-стержневой изоляции ЛР 35 кВ Тананыкская.</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ.</t>
+  </si>
+  <si>
+    <t>Включить ЗНВ ЛР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное положение ЗНВ ЛР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>На привод ЛР 35 Тананыкская вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения 35 кВ прикосновением к токоведущим частям, заведомо находящимся под напряжением - к жесткой ошиновке 35 кВ 2 секции шин.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на ШР 35 Тананыкская в сторону В 35 Тананыкская в течении времени не менее 5 сек.</t>
+  </si>
+  <si>
+    <t>Произвести осмотр опорно-стержневой изоляции ШР 35 кВ Тананыкская.</t>
+  </si>
+  <si>
+    <t>Включить ЗНВ ШР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное положение ЗНВ ШР 35 Тананыкская.</t>
+  </si>
+  <si>
+    <t>На привод ШР 35 Тананыкская вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>На ключ управления В 35 Тананыкская вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Произвести осмотр опорно-стержневой изоляции ЛР 35 кВ Тананыкская. </t>
+  </si>
+  <si>
+    <t>Критично</t>
+  </si>
+  <si>
+    <t>Нарушение ПОТ</t>
+  </si>
+  <si>
+    <t>ОПУ_6У_Светодиоды</t>
+  </si>
+  <si>
+    <t>Выключатель В 35 Т1 отключен.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выключатель В 35 Тананыкская включен. </t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В35Т1_ЗелёнаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_В35_КраснаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>Сквитировать ключ В 35 Т1. 
+Горит зелёная сигнальная лампа</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В35_Ключ</t>
+  </si>
+  <si>
+    <t>ОПУ_6Р_Бреслер</t>
+  </si>
+  <si>
+    <t>ОПУ_9Р_Бреслер</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_В35_Ключ</t>
+  </si>
+  <si>
+    <t>change value to</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_В35_Плакат</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Автомат_В35</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Плакат_В35</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_АВР35</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_Ключ_В35Т1</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_Амперметр_В35Т1</t>
+  </si>
+  <si>
+    <t>ОРУ_35_В35</t>
+  </si>
+  <si>
+    <t>ОПУ_Видеорегистратор</t>
+  </si>
+  <si>
+    <t>ОРУ_35_ЛР35</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_Ключ_ЛР35</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_СигнальнаяЛампа_ЛР35</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_Плакат_ЛР35</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_Ключ_ШР35</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_СигнальнаяЛампа_ШР35</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_Плакат_ШР35</t>
+  </si>
+  <si>
+    <t>ОРУ_35_ШР35</t>
+  </si>
+  <si>
+    <t>ОРУ_35_Автомат_ЛР35</t>
+  </si>
+  <si>
+    <t>ОРУ_35_Плакат_ЛР35</t>
+  </si>
+  <si>
+    <t>ОРУ_35_Автомат_ШР35</t>
+  </si>
+  <si>
+    <t>ОРУ_35_Плакат_ШР35</t>
+  </si>
+  <si>
+    <t>ОРУ_35_2секция</t>
+  </si>
+  <si>
+    <t>ОРУ_35_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>ОРУ_35_ЗНВЛР35</t>
+  </si>
+  <si>
+    <t>ОРУ_35_Указатель_2секция</t>
+  </si>
+  <si>
+    <t>switch value to</t>
+  </si>
+  <si>
+    <t>put a sign</t>
+  </si>
+  <si>
+    <t>сheck integrity</t>
+  </si>
+  <si>
+    <t>put on</t>
+  </si>
+  <si>
+    <t>check voltage</t>
+  </si>
+  <si>
+    <t>put a block</t>
+  </si>
+  <si>
+    <t>ОПУ_2У_В35Т1_КраснаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>ОРУ_35_ЗНВШР35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +449,56 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -131,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,15 +522,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,21 +849,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="4" width="13.53125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -449,16 +871,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -485,7 +907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -493,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -504,7 +926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -515,7 +937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -529,7 +951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -544,25 +966,1012 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7E95B-9464-4CBF-82F3-843C20175B21}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6E063E-1CE8-43A5-BBBA-30AA7E29F73F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Шаблоны/Scenar3.xlsx
+++ b/Шаблоны/Scenar3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="123">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -314,9 +314,6 @@
     <t>ОПУ_2У_Амперметр_В35Т1</t>
   </si>
   <si>
-    <t>ОРУ_35_В35</t>
-  </si>
-  <si>
     <t>ОПУ_Видеорегистратор</t>
   </si>
   <si>
@@ -396,6 +393,12 @@
   </si>
   <si>
     <t>ОРУ_35_ЗНВШР35</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_В35_ЗеленаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОРУ_35_В35_Тананыкская</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -570,6 +573,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -877,7 +881,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45408</v>
+        <v>45409</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1146,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1196,7 +1200,7 @@
         <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1213,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>87</v>
@@ -1236,7 +1240,7 @@
         <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>73</v>
@@ -1253,7 +1257,7 @@
         <v>89</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1273,7 +1277,7 @@
         <v>90</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>39</v>
@@ -1307,7 +1311,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1324,7 +1328,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
@@ -1361,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
@@ -1378,7 +1382,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>29</v>
@@ -1395,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>87</v>
@@ -1415,7 +1419,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>87</v>
@@ -1435,10 +1439,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1455,7 +1459,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>29</v>
@@ -1472,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>48</v>
@@ -1488,11 +1492,11 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>100</v>
+      <c r="C25" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1509,7 +1513,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>29</v>
@@ -1526,10 +1530,10 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>51</v>
@@ -1543,7 +1547,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>87</v>
@@ -1563,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>87</v>
@@ -1583,10 +1587,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1603,10 +1607,10 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>55</v>
@@ -1620,10 +1624,10 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1640,10 +1644,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>57</v>
@@ -1657,10 +1661,13 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>58</v>
@@ -1674,10 +1681,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35" s="11" t="s">
         <v>59</v>
@@ -1690,11 +1700,11 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" t="s">
-        <v>108</v>
+      <c r="C36" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>60</v>
@@ -1708,10 +1718,13 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>61</v>
@@ -1725,7 +1738,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>87</v>
@@ -1745,10 +1758,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>63</v>
@@ -1762,7 +1775,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>87</v>
@@ -1782,7 +1795,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>29</v>
@@ -1799,10 +1812,10 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>66</v>
@@ -1816,10 +1829,13 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>58</v>
@@ -1833,10 +1849,13 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>59</v>
@@ -1850,10 +1869,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>67</v>
@@ -1867,10 +1889,13 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>68</v>
@@ -1884,7 +1909,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>87</v>
@@ -1904,10 +1929,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>63</v>
@@ -1921,10 +1946,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1941,7 +1966,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>29</v>
@@ -1958,10 +1983,10 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>72</v>

--- a/Шаблоны/Scenar3.xlsx
+++ b/Шаблоны/Scenar3.xlsx
@@ -356,15 +356,9 @@
     <t>ОРУ_35_2секция</t>
   </si>
   <si>
-    <t>ОРУ_35_БлокировочныйКлюч</t>
-  </si>
-  <si>
     <t>ОРУ_35_ЗНВЛР35</t>
   </si>
   <si>
-    <t>ОРУ_35_Указатель_2секция</t>
-  </si>
-  <si>
     <t>switch value to</t>
   </si>
   <si>
@@ -399,14 +393,21 @@
   </si>
   <si>
     <t>ОРУ_35_В35_Тананыкская</t>
+  </si>
+  <si>
+    <t>ОРУ_ЛР35_БлокировочныйКлюч</t>
+  </si>
+  <si>
+    <t>ОРУ_ШР35_БлокировочныйКлюч</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -497,7 +498,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -544,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -572,8 +572,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -881,7 +882,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45409</v>
+        <v>45415</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,10 +972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,6 +1004,246 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="19"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="19"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="19"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="19"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="19"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="19"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="19"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="19"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="19"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="19"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="19"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="19"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="19"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="19"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="19"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="19"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="19"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="19"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="19"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="19"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="19"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="19"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="19"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="19"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="19"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="19"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="19"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="19"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="19"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="19"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="19"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="19"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="19"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="19"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1012,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1387,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1200,7 +1441,7 @@
         <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1217,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>87</v>
@@ -1240,7 +1481,7 @@
         <v>88</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>73</v>
@@ -1257,7 +1498,7 @@
         <v>89</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1277,7 +1518,7 @@
         <v>90</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>39</v>
@@ -1311,7 +1552,7 @@
         <v>92</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1328,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
@@ -1365,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
@@ -1442,7 +1683,7 @@
         <v>96</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1479,7 +1720,7 @@
         <v>98</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>48</v>
@@ -1492,11 +1733,11 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>99</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1533,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>51</v>
@@ -1590,7 +1831,7 @@
         <v>103</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1610,7 +1851,7 @@
         <v>104</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>55</v>
@@ -1627,7 +1868,7 @@
         <v>105</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1647,7 +1888,7 @@
         <v>106</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F33" s="11" t="s">
         <v>57</v>
@@ -1661,10 +1902,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1681,10 +1922,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1700,11 +1941,11 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>107</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>60</v>
@@ -1718,10 +1959,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1758,10 +1999,10 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>63</v>
@@ -1775,7 +2016,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>87</v>
@@ -1795,10 +2036,13 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>65</v>
@@ -1815,7 +2059,7 @@
         <v>104</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>66</v>
@@ -1829,10 +2073,10 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1849,10 +2093,10 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1869,10 +2113,10 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1889,10 +2133,10 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1929,10 +2173,10 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>63</v>
@@ -1946,10 +2190,10 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1966,10 +2210,13 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>29</v>
+        <v>87</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>71</v>
@@ -1986,7 +2233,7 @@
         <v>106</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>72</v>

--- a/Шаблоны/Scenar3.xlsx
+++ b/Шаблоны/Scenar3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -1349,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="166" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F166" s="4" t="str">
-        <f t="shared" ref="F131:F194" si="3">C166&amp;D166&amp;E166</f>
+        <f t="shared" ref="F166:F194" si="3">C166&amp;D166&amp;E166</f>
         <v/>
       </c>
     </row>
@@ -3341,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N52"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="C9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Шаблоны/Scenar3.xlsx
+++ b/Шаблоны/Scenar3.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Выполнение" sheetId="3" r:id="rId2"/>
     <sheet name="Норматив" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="116">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -553,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -576,12 +576,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -651,7 +660,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -945,7 +959,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,39 +975,39 @@
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
@@ -1349,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,9 +1398,6 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="39"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
       <c r="E2" s="4"/>
       <c r="F2" t="str">
         <f>C2&amp;D2&amp;E2</f>
@@ -1394,7 +1405,6 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
@@ -1404,7 +1414,6 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
@@ -1414,7 +1423,6 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="4"/>
@@ -1424,7 +1432,6 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
@@ -1434,7 +1441,6 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
       <c r="C7" s="3"/>
       <c r="D7" s="30"/>
       <c r="E7" s="3"/>
@@ -1444,7 +1450,6 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="39"/>
       <c r="C8" s="3"/>
       <c r="D8" s="31"/>
       <c r="E8" s="3"/>
@@ -1454,7 +1459,6 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
       <c r="C9" s="3"/>
       <c r="D9" s="31"/>
       <c r="E9" s="6"/>
@@ -1464,7 +1468,6 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1474,7 +1477,6 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1484,7 +1486,6 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1494,806 +1495,696 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
       <c r="F13" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
       <c r="F14" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
       <c r="F15" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="39"/>
       <c r="F16" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="39"/>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="39"/>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F18" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F19" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="39"/>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F20" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="39"/>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="39"/>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F24" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="39"/>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="39"/>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F26" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="39"/>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F27" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="39"/>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F29" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="39"/>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="39"/>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F31" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="39"/>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F32" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="39"/>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="39"/>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="39"/>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="39"/>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="39"/>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="39"/>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="39"/>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="39"/>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="39"/>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="39"/>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="39"/>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="39"/>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="39"/>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="39"/>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="39"/>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="39"/>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="39"/>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="39"/>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="39"/>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="39"/>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="39"/>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="39"/>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="39"/>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="4" t="str">
         <f t="shared" ref="F67:F130" si="1">C67&amp;D67&amp;E67</f>
         <v/>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="39"/>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="39"/>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="39"/>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="39"/>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="39"/>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="39"/>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="39"/>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="39"/>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="39"/>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="39"/>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="39"/>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="39"/>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="39"/>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="39"/>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="39"/>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="39"/>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="39"/>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="39"/>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="39"/>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="39"/>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="39"/>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="39"/>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="39"/>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="39"/>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="39"/>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="39"/>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="39"/>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="39"/>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="39"/>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="39"/>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="39"/>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="39"/>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="39"/>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="39"/>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="39"/>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="39"/>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="39"/>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F105" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="39"/>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F106" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="39"/>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F107" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="39"/>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F108" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="39"/>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F109" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="39"/>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F110" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="39"/>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F111" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="39"/>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F112" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="39"/>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F113" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="39"/>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F114" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="39"/>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F115" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="39"/>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F116" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="39"/>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F117" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="39"/>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F118" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="39"/>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F119" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="39"/>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F120" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="39"/>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F121" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="39"/>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F122" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F123" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F124" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F125" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F126" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F127" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F128" s="4" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2313,7 +2204,7 @@
     </row>
     <row r="131" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F131" s="4" t="str">
-        <f t="shared" ref="F131:F165" si="2">C131&amp;D131&amp;E131</f>
+        <f t="shared" ref="F131:F194" si="2">C131&amp;D131&amp;E131</f>
         <v/>
       </c>
     </row>
@@ -2523,811 +2414,811 @@
     </row>
     <row r="166" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F166" s="4" t="str">
-        <f t="shared" ref="F166:F194" si="3">C166&amp;D166&amp;E166</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="167" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F167" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="168" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F168" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="169" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F169" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="170" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F170" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="171" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F171" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="172" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F172" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="173" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F173" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="174" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F174" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="175" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F175" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="176" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F176" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="177" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F177" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="178" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F178" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="179" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F179" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="180" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F180" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="181" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F181" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="182" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F182" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="183" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F183" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="184" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F184" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="185" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F185" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="186" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F186" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="187" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F187" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="188" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F188" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="189" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F189" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="190" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F190" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="191" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F191" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="192" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F192" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="193" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F193" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="194" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F194" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="195" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F195" s="4" t="str">
-        <f t="shared" ref="F195:F258" si="4">C195&amp;D195&amp;E195</f>
+        <f t="shared" ref="F195:F258" si="3">C195&amp;D195&amp;E195</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F196" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="197" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F197" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="198" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F198" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="199" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F199" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="200" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F200" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="201" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F201" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="202" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F202" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="203" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F203" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="204" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F204" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="205" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F205" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="206" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F206" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="207" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F207" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="208" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F208" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="209" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F209" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="210" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F210" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="211" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F211" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="212" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F212" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="213" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F213" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="214" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F214" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="215" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F215" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="216" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F216" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="217" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F217" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="218" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F218" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="219" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F219" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="220" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F220" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="221" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F221" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="222" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F222" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="223" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F223" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="224" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F224" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="225" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F225" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="226" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F226" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="227" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F227" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="228" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F228" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="229" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F229" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="230" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F230" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="231" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F231" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="232" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F232" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="233" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F233" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="234" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F234" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="235" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F235" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="236" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F236" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="237" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F237" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="238" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F238" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="239" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F239" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="240" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F240" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F241" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F242" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="243" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F243" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="244" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F244" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="245" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F245" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="246" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F246" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="247" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F247" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="248" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F248" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="249" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F249" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="250" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F250" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="251" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F251" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="252" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F252" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="253" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F253" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="254" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F254" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="255" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F255" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="256" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F256" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="257" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F257" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="258" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F258" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="259" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F259" s="4" t="str">
-        <f t="shared" ref="F259:F300" si="5">C259&amp;D259&amp;E259</f>
+        <f t="shared" ref="F259:F300" si="4">C259&amp;D259&amp;E259</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F260" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="261" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F261" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="262" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F262" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="263" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F263" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="264" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F264" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="265" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F265" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="266" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F266" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="267" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F267" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="268" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F268" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="269" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F269" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="270" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F270" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="271" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F271" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="272" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F272" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="273" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F273" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="274" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F274" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="275" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F275" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="276" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F276" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="277" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F277" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="278" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F278" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="279" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F279" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="280" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F280" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="281" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F281" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="282" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F282" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="283" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F283" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="284" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F284" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="285" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F285" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="286" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F286" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="287" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F287" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="288" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F288" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="289" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F289" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="290" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F290" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="291" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F291" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="292" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F292" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="293" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F293" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="294" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F294" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="295" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F295" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="296" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F296" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="297" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F297" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="298" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F298" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="299" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F299" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="300" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F300" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3339,10 +3230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O300"/>
+  <dimension ref="A1:R300"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="C9:F9"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,9 +3252,10 @@
     <col min="13" max="13" width="23" customWidth="1"/>
     <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -3406,8 +3298,14 @@
       <c r="N1" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3454,8 +3352,20 @@
         <v>0</v>
       </c>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <f>Выполнение!B2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>Выполнение!C2&amp;Выполнение!D2&amp;Выполнение!E2</f>
+        <v/>
+      </c>
+      <c r="R2" t="e">
+        <f>VLOOKUP(L2,Q1:Q300,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3502,8 +3412,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="4">
+        <f>Выполнение!B3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4" t="str">
+        <f>Выполнение!C3&amp;Выполнение!D3&amp;Выполнение!E3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3552,8 +3470,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="4">
+        <f>Выполнение!B4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4" t="str">
+        <f>Выполнение!C4&amp;Выполнение!D4&amp;Выполнение!E4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3602,8 +3528,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P5" s="4">
+        <f>Выполнение!B5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f>Выполнение!C5&amp;Выполнение!D5&amp;Выполнение!E5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3652,8 +3586,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" s="4">
+        <f>Выполнение!B6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4" t="str">
+        <f>Выполнение!C6&amp;Выполнение!D6&amp;Выполнение!E6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3700,8 +3642,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="4">
+        <f>Выполнение!B7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f>Выполнение!C7&amp;Выполнение!D7&amp;Выполнение!E7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3748,8 +3698,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P8" s="4">
+        <f>Выполнение!B8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4" t="str">
+        <f>Выполнение!C8&amp;Выполнение!D8&amp;Выполнение!E8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3798,8 +3756,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P9" s="4">
+        <f>Выполнение!B9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f>Выполнение!C9&amp;Выполнение!D9&amp;Выполнение!E9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3847,8 +3813,16 @@
         <f>IFERROR(IF($L10="",0,IF(L10=M10,1,0)),0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P10" s="4">
+        <f>Выполнение!B10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f>Выполнение!C10&amp;Выполнение!D10&amp;Выполнение!E10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3895,8 +3869,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P11" s="4">
+        <f>Выполнение!B11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4" t="str">
+        <f>Выполнение!C11&amp;Выполнение!D11&amp;Выполнение!E11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3945,8 +3927,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P12" s="4">
+        <f>Выполнение!B12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f>Выполнение!C12&amp;Выполнение!D12&amp;Выполнение!E12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -3993,8 +3983,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="4">
+        <f>Выполнение!B13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4" t="str">
+        <f>Выполнение!C13&amp;Выполнение!D13&amp;Выполнение!E13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4041,8 +4039,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="4">
+        <f>Выполнение!B14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f>Выполнение!C14&amp;Выполнение!D14&amp;Выполнение!E14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4091,8 +4097,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P15" s="4">
+        <f>Выполнение!B15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <f>Выполнение!C15&amp;Выполнение!D15&amp;Выполнение!E15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4139,8 +4153,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="4">
+        <f>Выполнение!B16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4" t="str">
+        <f>Выполнение!C16&amp;Выполнение!D16&amp;Выполнение!E16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4189,8 +4211,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="4">
+        <f>Выполнение!B17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4" t="str">
+        <f>Выполнение!C17&amp;Выполнение!D17&amp;Выполнение!E17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -4237,8 +4267,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="P18" s="4">
+        <f>Выполнение!B18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4" t="str">
+        <f>Выполнение!C18&amp;Выполнение!D18&amp;Выполнение!E18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4285,8 +4323,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P19" s="4">
+        <f>Выполнение!B19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4" t="str">
+        <f>Выполнение!C19&amp;Выполнение!D19&amp;Выполнение!E19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -4335,8 +4381,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P20" s="4">
+        <f>Выполнение!B20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4" t="str">
+        <f>Выполнение!C20&amp;Выполнение!D20&amp;Выполнение!E20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4385,8 +4439,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="4">
+        <f>Выполнение!B21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4" t="str">
+        <f>Выполнение!C21&amp;Выполнение!D21&amp;Выполнение!E21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -4435,8 +4497,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P22" s="4">
+        <f>Выполнение!B22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4" t="str">
+        <f>Выполнение!C22&amp;Выполнение!D22&amp;Выполнение!E22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -4483,8 +4553,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P23" s="4">
+        <f>Выполнение!B23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4" t="str">
+        <f>Выполнение!C23&amp;Выполнение!D23&amp;Выполнение!E23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -4531,8 +4609,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" s="4">
+        <f>Выполнение!B24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4" t="str">
+        <f>Выполнение!C24&amp;Выполнение!D24&amp;Выполнение!E24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -4581,8 +4667,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P25" s="4">
+        <f>Выполнение!B25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4" t="str">
+        <f>Выполнение!C25&amp;Выполнение!D25&amp;Выполнение!E25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -4629,8 +4723,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P26" s="4">
+        <f>Выполнение!B26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4" t="str">
+        <f>Выполнение!C26&amp;Выполнение!D26&amp;Выполнение!E26</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -4677,8 +4779,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="4">
+        <f>Выполнение!B27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4" t="str">
+        <f>Выполнение!C27&amp;Выполнение!D27&amp;Выполнение!E27</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -4727,8 +4837,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" s="4">
+        <f>Выполнение!B28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4" t="str">
+        <f>Выполнение!C28&amp;Выполнение!D28&amp;Выполнение!E28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -4777,8 +4895,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="4"/>
-    </row>
-    <row r="30" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P29" s="4">
+        <f>Выполнение!B29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4" t="str">
+        <f>Выполнение!C29&amp;Выполнение!D29&amp;Выполнение!E29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -4827,8 +4953,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P30" s="4">
+        <f>Выполнение!B30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4" t="str">
+        <f>Выполнение!C30&amp;Выполнение!D30&amp;Выполнение!E30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -4875,8 +5009,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P31" s="4">
+        <f>Выполнение!B31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4" t="str">
+        <f>Выполнение!C31&amp;Выполнение!D31&amp;Выполнение!E31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -4925,8 +5067,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P32" s="4">
+        <f>Выполнение!B32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4" t="str">
+        <f>Выполнение!C32&amp;Выполнение!D32&amp;Выполнение!E32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -4973,8 +5123,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" s="4">
+        <f>Выполнение!B33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4" t="str">
+        <f>Выполнение!C33&amp;Выполнение!D33&amp;Выполнение!E33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -5023,8 +5181,16 @@
         <v>0</v>
       </c>
       <c r="O34" s="4"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" s="4">
+        <f>Выполнение!B34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4" t="str">
+        <f>Выполнение!C34&amp;Выполнение!D34&amp;Выполнение!E34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -5073,8 +5239,16 @@
         <v>0</v>
       </c>
       <c r="O35" s="4"/>
-    </row>
-    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="P35" s="4">
+        <f>Выполнение!B35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4" t="str">
+        <f>Выполнение!C35&amp;Выполнение!D35&amp;Выполнение!E35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -5121,8 +5295,16 @@
         <v>0</v>
       </c>
       <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P36" s="4">
+        <f>Выполнение!B36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4" t="str">
+        <f>Выполнение!C36&amp;Выполнение!D36&amp;Выполнение!E36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -5171,8 +5353,16 @@
         <v>0</v>
       </c>
       <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P37" s="4">
+        <f>Выполнение!B37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4" t="str">
+        <f>Выполнение!C37&amp;Выполнение!D37&amp;Выполнение!E37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -5221,8 +5411,16 @@
         <v>0</v>
       </c>
       <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="4">
+        <f>Выполнение!B38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4" t="str">
+        <f>Выполнение!C38&amp;Выполнение!D38&amp;Выполнение!E38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -5269,8 +5467,16 @@
         <v>0</v>
       </c>
       <c r="O39" s="4"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" s="4">
+        <f>Выполнение!B39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4" t="str">
+        <f>Выполнение!C39&amp;Выполнение!D39&amp;Выполнение!E39</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -5319,8 +5525,16 @@
         <v>0</v>
       </c>
       <c r="O40" s="4"/>
-    </row>
-    <row r="41" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P40" s="4">
+        <f>Выполнение!B40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4" t="str">
+        <f>Выполнение!C40&amp;Выполнение!D40&amp;Выполнение!E40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -5369,8 +5583,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="4"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" s="4">
+        <f>Выполнение!B41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4" t="str">
+        <f>Выполнение!C41&amp;Выполнение!D41&amp;Выполнение!E41</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -5417,8 +5639,16 @@
         <v>0</v>
       </c>
       <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" s="4">
+        <f>Выполнение!B42</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4" t="str">
+        <f>Выполнение!C42&amp;Выполнение!D42&amp;Выполнение!E42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -5467,8 +5697,16 @@
         <v>0</v>
       </c>
       <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" s="4">
+        <f>Выполнение!B43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4" t="str">
+        <f>Выполнение!C43&amp;Выполнение!D43&amp;Выполнение!E43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -5517,8 +5755,16 @@
         <v>0</v>
       </c>
       <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="P44" s="4">
+        <f>Выполнение!B44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4" t="str">
+        <f>Выполнение!C44&amp;Выполнение!D44&amp;Выполнение!E44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -5567,8 +5813,16 @@
         <v>0</v>
       </c>
       <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P45" s="4">
+        <f>Выполнение!B45</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4" t="str">
+        <f>Выполнение!C45&amp;Выполнение!D45&amp;Выполнение!E45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -5617,8 +5871,16 @@
         <v>0</v>
       </c>
       <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P46" s="4">
+        <f>Выполнение!B46</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4" t="str">
+        <f>Выполнение!C46&amp;Выполнение!D46&amp;Выполнение!E46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -5667,8 +5929,16 @@
         <v>0</v>
       </c>
       <c r="O47" s="4"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" s="4">
+        <f>Выполнение!B47</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4" t="str">
+        <f>Выполнение!C47&amp;Выполнение!D47&amp;Выполнение!E47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -5715,8 +5985,16 @@
         <v>0</v>
       </c>
       <c r="O48" s="4"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="4">
+        <f>Выполнение!B48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4" t="str">
+        <f>Выполнение!C48&amp;Выполнение!D48&amp;Выполнение!E48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -5765,8 +6043,16 @@
         <v>0</v>
       </c>
       <c r="O49" s="4"/>
-    </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P49" s="4">
+        <f>Выполнение!B49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4" t="str">
+        <f>Выполнение!C49&amp;Выполнение!D49&amp;Выполнение!E49</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -5815,8 +6101,16 @@
         <v>0</v>
       </c>
       <c r="O50" s="4"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="4">
+        <f>Выполнение!B50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="4" t="str">
+        <f>Выполнение!C50&amp;Выполнение!D50&amp;Выполнение!E50</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>50</v>
       </c>
@@ -5863,8 +6157,16 @@
         <v>0</v>
       </c>
       <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="4">
+        <f>Выполнение!B51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4" t="str">
+        <f>Выполнение!C51&amp;Выполнение!D51&amp;Выполнение!E51</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="37"/>
       <c r="C52" s="10"/>
@@ -5901,8 +6203,16 @@
         <v>0</v>
       </c>
       <c r="O52" s="4"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" s="4">
+        <f>Выполнение!B52</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="4" t="str">
+        <f>Выполнение!C52&amp;Выполнение!D52&amp;Выполнение!E52</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="37"/>
       <c r="C53" s="10"/>
@@ -5939,8 +6249,16 @@
         <v>0</v>
       </c>
       <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" s="4">
+        <f>Выполнение!B53</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4" t="str">
+        <f>Выполнение!C53&amp;Выполнение!D53&amp;Выполнение!E53</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="37"/>
       <c r="C54" s="10"/>
@@ -5977,8 +6295,16 @@
         <v>0</v>
       </c>
       <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" s="4">
+        <f>Выполнение!B54</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="4" t="str">
+        <f>Выполнение!C54&amp;Выполнение!D54&amp;Выполнение!E54</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="37"/>
       <c r="C55" s="10"/>
@@ -6015,8 +6341,16 @@
         <v>0</v>
       </c>
       <c r="O55" s="4"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" s="4">
+        <f>Выполнение!B55</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="4" t="str">
+        <f>Выполнение!C55&amp;Выполнение!D55&amp;Выполнение!E55</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="37"/>
       <c r="C56" s="10"/>
@@ -6053,8 +6387,16 @@
         <v>0</v>
       </c>
       <c r="O56" s="4"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="4">
+        <f>Выполнение!B56</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="4" t="str">
+        <f>Выполнение!C56&amp;Выполнение!D56&amp;Выполнение!E56</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="37"/>
       <c r="C57" s="10"/>
@@ -6091,8 +6433,16 @@
         <v>0</v>
       </c>
       <c r="O57" s="4"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" s="4">
+        <f>Выполнение!B57</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="4" t="str">
+        <f>Выполнение!C57&amp;Выполнение!D57&amp;Выполнение!E57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="37"/>
       <c r="C58" s="10"/>
@@ -6129,8 +6479,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="4"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" s="4">
+        <f>Выполнение!B58</f>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="4" t="str">
+        <f>Выполнение!C58&amp;Выполнение!D58&amp;Выполнение!E58</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="37"/>
       <c r="C59" s="10"/>
@@ -6167,8 +6525,16 @@
         <v>0</v>
       </c>
       <c r="O59" s="4"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" s="4">
+        <f>Выполнение!B59</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="4" t="str">
+        <f>Выполнение!C59&amp;Выполнение!D59&amp;Выполнение!E59</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="37"/>
       <c r="C60" s="10"/>
@@ -6205,8 +6571,16 @@
         <v>0</v>
       </c>
       <c r="O60" s="4"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" s="4">
+        <f>Выполнение!B60</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="4" t="str">
+        <f>Выполнение!C60&amp;Выполнение!D60&amp;Выполнение!E60</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="37"/>
       <c r="C61" s="10"/>
@@ -6243,8 +6617,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="4"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" s="4">
+        <f>Выполнение!B61</f>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="4" t="str">
+        <f>Выполнение!C61&amp;Выполнение!D61&amp;Выполнение!E61</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="37"/>
       <c r="C62" s="10"/>
@@ -6281,8 +6663,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="4"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" s="4">
+        <f>Выполнение!B62</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="4" t="str">
+        <f>Выполнение!C62&amp;Выполнение!D62&amp;Выполнение!E62</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="37"/>
       <c r="C63" s="10"/>
@@ -6319,8 +6709,16 @@
         <v>0</v>
       </c>
       <c r="O63" s="4"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" s="4">
+        <f>Выполнение!B63</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="4" t="str">
+        <f>Выполнение!C63&amp;Выполнение!D63&amp;Выполнение!E63</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="37"/>
       <c r="C64" s="10"/>
@@ -6357,8 +6755,16 @@
         <v>0</v>
       </c>
       <c r="O64" s="4"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" s="4">
+        <f>Выполнение!B64</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="4" t="str">
+        <f>Выполнение!C64&amp;Выполнение!D64&amp;Выполнение!E64</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="37"/>
       <c r="C65" s="10"/>
@@ -6395,8 +6801,16 @@
         <v>0</v>
       </c>
       <c r="O65" s="4"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" s="4">
+        <f>Выполнение!B65</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="4" t="str">
+        <f>Выполнение!C65&amp;Выполнение!D65&amp;Выполнение!E65</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="37"/>
       <c r="C66" s="10"/>
@@ -6433,8 +6847,16 @@
         <v>0</v>
       </c>
       <c r="O66" s="4"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" s="4">
+        <f>Выполнение!B66</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="4" t="str">
+        <f>Выполнение!C66&amp;Выполнение!D66&amp;Выполнение!E66</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
       <c r="B67" s="37"/>
       <c r="C67" s="10"/>
@@ -6471,8 +6893,16 @@
         <v>0</v>
       </c>
       <c r="O67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" s="4">
+        <f>Выполнение!B67</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="4" t="str">
+        <f>Выполнение!C67&amp;Выполнение!D67&amp;Выполнение!E67</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
       <c r="B68" s="37"/>
       <c r="C68" s="10"/>
@@ -6509,8 +6939,16 @@
         <v>0</v>
       </c>
       <c r="O68" s="4"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" s="4">
+        <f>Выполнение!B68</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="4" t="str">
+        <f>Выполнение!C68&amp;Выполнение!D68&amp;Выполнение!E68</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="37"/>
       <c r="C69" s="10"/>
@@ -6547,8 +6985,16 @@
         <v>0</v>
       </c>
       <c r="O69" s="4"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" s="4">
+        <f>Выполнение!B69</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="4" t="str">
+        <f>Выполнение!C69&amp;Выполнение!D69&amp;Выполнение!E69</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
       <c r="B70" s="37"/>
       <c r="C70" s="10"/>
@@ -6585,8 +7031,16 @@
         <v>0</v>
       </c>
       <c r="O70" s="4"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" s="4">
+        <f>Выполнение!B70</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="4" t="str">
+        <f>Выполнение!C70&amp;Выполнение!D70&amp;Выполнение!E70</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="37"/>
       <c r="C71" s="10"/>
@@ -6623,8 +7077,16 @@
         <v>0</v>
       </c>
       <c r="O71" s="4"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" s="4">
+        <f>Выполнение!B71</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="4" t="str">
+        <f>Выполнение!C71&amp;Выполнение!D71&amp;Выполнение!E71</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="37"/>
       <c r="C72" s="10"/>
@@ -6661,8 +7123,16 @@
         <v>0</v>
       </c>
       <c r="O72" s="4"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" s="4">
+        <f>Выполнение!B72</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="4" t="str">
+        <f>Выполнение!C72&amp;Выполнение!D72&amp;Выполнение!E72</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="37"/>
       <c r="C73" s="10"/>
@@ -6699,8 +7169,16 @@
         <v>0</v>
       </c>
       <c r="O73" s="4"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" s="4">
+        <f>Выполнение!B73</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="4" t="str">
+        <f>Выполнение!C73&amp;Выполнение!D73&amp;Выполнение!E73</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="37"/>
       <c r="C74" s="10"/>
@@ -6737,8 +7215,16 @@
         <v>0</v>
       </c>
       <c r="O74" s="4"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" s="4">
+        <f>Выполнение!B74</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="4" t="str">
+        <f>Выполнение!C74&amp;Выполнение!D74&amp;Выполнение!E74</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="37"/>
       <c r="C75" s="10"/>
@@ -6775,8 +7261,16 @@
         <v>0</v>
       </c>
       <c r="O75" s="4"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" s="4">
+        <f>Выполнение!B75</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="4" t="str">
+        <f>Выполнение!C75&amp;Выполнение!D75&amp;Выполнение!E75</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="37"/>
       <c r="C76" s="10"/>
@@ -6813,8 +7307,16 @@
         <v>0</v>
       </c>
       <c r="O76" s="4"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" s="4">
+        <f>Выполнение!B76</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="4" t="str">
+        <f>Выполнение!C76&amp;Выполнение!D76&amp;Выполнение!E76</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="37"/>
       <c r="C77" s="10"/>
@@ -6851,8 +7353,16 @@
         <v>0</v>
       </c>
       <c r="O77" s="4"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" s="4">
+        <f>Выполнение!B77</f>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="4" t="str">
+        <f>Выполнение!C77&amp;Выполнение!D77&amp;Выполнение!E77</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="37"/>
       <c r="C78" s="10"/>
@@ -6889,8 +7399,16 @@
         <v>0</v>
       </c>
       <c r="O78" s="4"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" s="4">
+        <f>Выполнение!B78</f>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="4" t="str">
+        <f>Выполнение!C78&amp;Выполнение!D78&amp;Выполнение!E78</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="37"/>
       <c r="C79" s="10"/>
@@ -6927,8 +7445,16 @@
         <v>0</v>
       </c>
       <c r="O79" s="4"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79" s="4">
+        <f>Выполнение!B79</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="4" t="str">
+        <f>Выполнение!C79&amp;Выполнение!D79&amp;Выполнение!E79</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="37"/>
       <c r="C80" s="10"/>
@@ -6965,8 +7491,16 @@
         <v>0</v>
       </c>
       <c r="O80" s="4"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="4">
+        <f>Выполнение!B80</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="4" t="str">
+        <f>Выполнение!C80&amp;Выполнение!D80&amp;Выполнение!E80</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="37"/>
       <c r="C81" s="10"/>
@@ -7003,8 +7537,16 @@
         <v>0</v>
       </c>
       <c r="O81" s="4"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P81" s="4">
+        <f>Выполнение!B81</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="4" t="str">
+        <f>Выполнение!C81&amp;Выполнение!D81&amp;Выполнение!E81</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="37"/>
       <c r="C82" s="10"/>
@@ -7041,8 +7583,16 @@
         <v>0</v>
       </c>
       <c r="O82" s="4"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P82" s="4">
+        <f>Выполнение!B82</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="4" t="str">
+        <f>Выполнение!C82&amp;Выполнение!D82&amp;Выполнение!E82</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="37"/>
       <c r="C83" s="10"/>
@@ -7079,8 +7629,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="4"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P83" s="4">
+        <f>Выполнение!B83</f>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="4" t="str">
+        <f>Выполнение!C83&amp;Выполнение!D83&amp;Выполнение!E83</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="37"/>
       <c r="C84" s="10"/>
@@ -7117,8 +7675,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="4"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P84" s="4">
+        <f>Выполнение!B84</f>
+        <v>0</v>
+      </c>
+      <c r="Q84" s="4" t="str">
+        <f>Выполнение!C84&amp;Выполнение!D84&amp;Выполнение!E84</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="37"/>
       <c r="C85" s="10"/>
@@ -7155,8 +7721,16 @@
         <v>0</v>
       </c>
       <c r="O85" s="4"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P85" s="4">
+        <f>Выполнение!B85</f>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="4" t="str">
+        <f>Выполнение!C85&amp;Выполнение!D85&amp;Выполнение!E85</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="37"/>
       <c r="C86" s="10"/>
@@ -7193,8 +7767,16 @@
         <v>0</v>
       </c>
       <c r="O86" s="4"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P86" s="4">
+        <f>Выполнение!B86</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="4" t="str">
+        <f>Выполнение!C86&amp;Выполнение!D86&amp;Выполнение!E86</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="37"/>
       <c r="C87" s="10"/>
@@ -7231,8 +7813,16 @@
         <v>0</v>
       </c>
       <c r="O87" s="4"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P87" s="4">
+        <f>Выполнение!B87</f>
+        <v>0</v>
+      </c>
+      <c r="Q87" s="4" t="str">
+        <f>Выполнение!C87&amp;Выполнение!D87&amp;Выполнение!E87</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="37"/>
       <c r="C88" s="10"/>
@@ -7269,8 +7859,16 @@
         <v>0</v>
       </c>
       <c r="O88" s="4"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P88" s="4">
+        <f>Выполнение!B88</f>
+        <v>0</v>
+      </c>
+      <c r="Q88" s="4" t="str">
+        <f>Выполнение!C88&amp;Выполнение!D88&amp;Выполнение!E88</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="37"/>
       <c r="C89" s="10"/>
@@ -7307,8 +7905,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="4"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P89" s="4">
+        <f>Выполнение!B89</f>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="4" t="str">
+        <f>Выполнение!C89&amp;Выполнение!D89&amp;Выполнение!E89</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="37"/>
       <c r="C90" s="10"/>
@@ -7345,8 +7951,16 @@
         <v>0</v>
       </c>
       <c r="O90" s="4"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P90" s="4">
+        <f>Выполнение!B90</f>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="4" t="str">
+        <f>Выполнение!C90&amp;Выполнение!D90&amp;Выполнение!E90</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="37"/>
       <c r="C91" s="10"/>
@@ -7383,8 +7997,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="4"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P91" s="4">
+        <f>Выполнение!B91</f>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="4" t="str">
+        <f>Выполнение!C91&amp;Выполнение!D91&amp;Выполнение!E91</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="37"/>
       <c r="C92" s="10"/>
@@ -7421,8 +8043,16 @@
         <v>0</v>
       </c>
       <c r="O92" s="4"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P92" s="4">
+        <f>Выполнение!B92</f>
+        <v>0</v>
+      </c>
+      <c r="Q92" s="4" t="str">
+        <f>Выполнение!C92&amp;Выполнение!D92&amp;Выполнение!E92</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="37"/>
       <c r="C93" s="10"/>
@@ -7459,8 +8089,16 @@
         <v>0</v>
       </c>
       <c r="O93" s="4"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="4">
+        <f>Выполнение!B93</f>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="4" t="str">
+        <f>Выполнение!C93&amp;Выполнение!D93&amp;Выполнение!E93</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="37"/>
       <c r="C94" s="10"/>
@@ -7497,8 +8135,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="4"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P94" s="4">
+        <f>Выполнение!B94</f>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="4" t="str">
+        <f>Выполнение!C94&amp;Выполнение!D94&amp;Выполнение!E94</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
@@ -7535,8 +8181,16 @@
         <v>0</v>
       </c>
       <c r="O95" s="4"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P95" s="4">
+        <f>Выполнение!B95</f>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="4" t="str">
+        <f>Выполнение!C95&amp;Выполнение!D95&amp;Выполнение!E95</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
@@ -7573,8 +8227,16 @@
         <v>0</v>
       </c>
       <c r="O96" s="4"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P96" s="4">
+        <f>Выполнение!B96</f>
+        <v>0</v>
+      </c>
+      <c r="Q96" s="4" t="str">
+        <f>Выполнение!C96&amp;Выполнение!D96&amp;Выполнение!E96</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
@@ -7611,8 +8273,16 @@
         <v>0</v>
       </c>
       <c r="O97" s="4"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P97" s="4">
+        <f>Выполнение!B97</f>
+        <v>0</v>
+      </c>
+      <c r="Q97" s="4" t="str">
+        <f>Выполнение!C97&amp;Выполнение!D97&amp;Выполнение!E97</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
@@ -7649,8 +8319,16 @@
         <v>0</v>
       </c>
       <c r="O98" s="4"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P98" s="4">
+        <f>Выполнение!B98</f>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="4" t="str">
+        <f>Выполнение!C98&amp;Выполнение!D98&amp;Выполнение!E98</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
@@ -7687,8 +8365,16 @@
         <v>0</v>
       </c>
       <c r="O99" s="4"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P99" s="4">
+        <f>Выполнение!B99</f>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="4" t="str">
+        <f>Выполнение!C99&amp;Выполнение!D99&amp;Выполнение!E99</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10"/>
       <c r="C100" s="22"/>
@@ -7725,8 +8411,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="4">
+        <f>Выполнение!B100</f>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="4" t="str">
+        <f>Выполнение!C100&amp;Выполнение!D100&amp;Выполнение!E100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -7763,8 +8457,16 @@
         <v>0</v>
       </c>
       <c r="O101" s="4"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P101" s="4">
+        <f>Выполнение!B101</f>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="4" t="str">
+        <f>Выполнение!C101&amp;Выполнение!D101&amp;Выполнение!E101</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -7801,8 +8503,16 @@
         <v>0</v>
       </c>
       <c r="O102" s="4"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P102" s="4">
+        <f>Выполнение!B102</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="4" t="str">
+        <f>Выполнение!C102&amp;Выполнение!D102&amp;Выполнение!E102</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -7839,8 +8549,16 @@
         <v>0</v>
       </c>
       <c r="O103" s="4"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P103" s="4">
+        <f>Выполнение!B103</f>
+        <v>0</v>
+      </c>
+      <c r="Q103" s="4" t="str">
+        <f>Выполнение!C103&amp;Выполнение!D103&amp;Выполнение!E103</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
@@ -7877,8 +8595,16 @@
         <v>0</v>
       </c>
       <c r="O104" s="4"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P104" s="4">
+        <f>Выполнение!B104</f>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="4" t="str">
+        <f>Выполнение!C104&amp;Выполнение!D104&amp;Выполнение!E104</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -7915,8 +8641,16 @@
         <v>0</v>
       </c>
       <c r="O105" s="4"/>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P105" s="4">
+        <f>Выполнение!B105</f>
+        <v>0</v>
+      </c>
+      <c r="Q105" s="4" t="str">
+        <f>Выполнение!C105&amp;Выполнение!D105&amp;Выполнение!E105</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
@@ -7953,8 +8687,16 @@
         <v>0</v>
       </c>
       <c r="O106" s="4"/>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P106" s="4">
+        <f>Выполнение!B106</f>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="4" t="str">
+        <f>Выполнение!C106&amp;Выполнение!D106&amp;Выполнение!E106</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
@@ -7991,8 +8733,16 @@
         <v>0</v>
       </c>
       <c r="O107" s="4"/>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P107" s="4">
+        <f>Выполнение!B107</f>
+        <v>0</v>
+      </c>
+      <c r="Q107" s="4" t="str">
+        <f>Выполнение!C107&amp;Выполнение!D107&amp;Выполнение!E107</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
@@ -8029,8 +8779,16 @@
         <v>0</v>
       </c>
       <c r="O108" s="4"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P108" s="4">
+        <f>Выполнение!B108</f>
+        <v>0</v>
+      </c>
+      <c r="Q108" s="4" t="str">
+        <f>Выполнение!C108&amp;Выполнение!D108&amp;Выполнение!E108</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -8067,8 +8825,16 @@
         <v>0</v>
       </c>
       <c r="O109" s="4"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P109" s="4">
+        <f>Выполнение!B109</f>
+        <v>0</v>
+      </c>
+      <c r="Q109" s="4" t="str">
+        <f>Выполнение!C109&amp;Выполнение!D109&amp;Выполнение!E109</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
@@ -8105,8 +8871,16 @@
         <v>0</v>
       </c>
       <c r="O110" s="4"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P110" s="4">
+        <f>Выполнение!B110</f>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="4" t="str">
+        <f>Выполнение!C110&amp;Выполнение!D110&amp;Выполнение!E110</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
@@ -8143,8 +8917,16 @@
         <v>0</v>
       </c>
       <c r="O111" s="4"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P111" s="4">
+        <f>Выполнение!B111</f>
+        <v>0</v>
+      </c>
+      <c r="Q111" s="4" t="str">
+        <f>Выполнение!C111&amp;Выполнение!D111&amp;Выполнение!E111</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -8181,8 +8963,16 @@
         <v>0</v>
       </c>
       <c r="O112" s="4"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P112" s="4">
+        <f>Выполнение!B112</f>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="4" t="str">
+        <f>Выполнение!C112&amp;Выполнение!D112&amp;Выполнение!E112</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
@@ -8219,8 +9009,16 @@
         <v>0</v>
       </c>
       <c r="O113" s="4"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P113" s="4">
+        <f>Выполнение!B113</f>
+        <v>0</v>
+      </c>
+      <c r="Q113" s="4" t="str">
+        <f>Выполнение!C113&amp;Выполнение!D113&amp;Выполнение!E113</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
@@ -8257,8 +9055,16 @@
         <v>0</v>
       </c>
       <c r="O114" s="4"/>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P114" s="4">
+        <f>Выполнение!B114</f>
+        <v>0</v>
+      </c>
+      <c r="Q114" s="4" t="str">
+        <f>Выполнение!C114&amp;Выполнение!D114&amp;Выполнение!E114</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
@@ -8295,8 +9101,16 @@
         <v>0</v>
       </c>
       <c r="O115" s="4"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P115" s="4">
+        <f>Выполнение!B115</f>
+        <v>0</v>
+      </c>
+      <c r="Q115" s="4" t="str">
+        <f>Выполнение!C115&amp;Выполнение!D115&amp;Выполнение!E115</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -8333,8 +9147,16 @@
         <v>0</v>
       </c>
       <c r="O116" s="4"/>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P116" s="4">
+        <f>Выполнение!B116</f>
+        <v>0</v>
+      </c>
+      <c r="Q116" s="4" t="str">
+        <f>Выполнение!C116&amp;Выполнение!D116&amp;Выполнение!E116</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -8371,8 +9193,16 @@
         <v>0</v>
       </c>
       <c r="O117" s="4"/>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P117" s="4">
+        <f>Выполнение!B117</f>
+        <v>0</v>
+      </c>
+      <c r="Q117" s="4" t="str">
+        <f>Выполнение!C117&amp;Выполнение!D117&amp;Выполнение!E117</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
@@ -8409,8 +9239,16 @@
         <v>0</v>
       </c>
       <c r="O118" s="4"/>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P118" s="4">
+        <f>Выполнение!B118</f>
+        <v>0</v>
+      </c>
+      <c r="Q118" s="4" t="str">
+        <f>Выполнение!C118&amp;Выполнение!D118&amp;Выполнение!E118</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
@@ -8447,8 +9285,16 @@
         <v>0</v>
       </c>
       <c r="O119" s="4"/>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P119" s="4">
+        <f>Выполнение!B119</f>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="4" t="str">
+        <f>Выполнение!C119&amp;Выполнение!D119&amp;Выполнение!E119</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
@@ -8485,8 +9331,16 @@
         <v>0</v>
       </c>
       <c r="O120" s="4"/>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P120" s="4">
+        <f>Выполнение!B120</f>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="4" t="str">
+        <f>Выполнение!C120&amp;Выполнение!D120&amp;Выполнение!E120</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
@@ -8523,8 +9377,16 @@
         <v>0</v>
       </c>
       <c r="O121" s="4"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P121" s="4">
+        <f>Выполнение!B121</f>
+        <v>0</v>
+      </c>
+      <c r="Q121" s="4" t="str">
+        <f>Выполнение!C121&amp;Выполнение!D121&amp;Выполнение!E121</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
@@ -8561,8 +9423,16 @@
         <v>0</v>
       </c>
       <c r="O122" s="4"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P122" s="4">
+        <f>Выполнение!B122</f>
+        <v>0</v>
+      </c>
+      <c r="Q122" s="4" t="str">
+        <f>Выполнение!C122&amp;Выполнение!D122&amp;Выполнение!E122</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
@@ -8599,8 +9469,16 @@
         <v>0</v>
       </c>
       <c r="O123" s="4"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P123" s="4">
+        <f>Выполнение!B123</f>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="4" t="str">
+        <f>Выполнение!C123&amp;Выполнение!D123&amp;Выполнение!E123</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -8637,8 +9515,16 @@
         <v>0</v>
       </c>
       <c r="O124" s="4"/>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P124" s="4">
+        <f>Выполнение!B124</f>
+        <v>0</v>
+      </c>
+      <c r="Q124" s="4" t="str">
+        <f>Выполнение!C124&amp;Выполнение!D124&amp;Выполнение!E124</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
@@ -8675,8 +9561,16 @@
         <v>0</v>
       </c>
       <c r="O125" s="4"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P125" s="4">
+        <f>Выполнение!B125</f>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="4" t="str">
+        <f>Выполнение!C125&amp;Выполнение!D125&amp;Выполнение!E125</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
@@ -8713,8 +9607,16 @@
         <v>0</v>
       </c>
       <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P126" s="4">
+        <f>Выполнение!B126</f>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="4" t="str">
+        <f>Выполнение!C126&amp;Выполнение!D126&amp;Выполнение!E126</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
@@ -8751,8 +9653,16 @@
         <v>0</v>
       </c>
       <c r="O127" s="4"/>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P127" s="4">
+        <f>Выполнение!B127</f>
+        <v>0</v>
+      </c>
+      <c r="Q127" s="4" t="str">
+        <f>Выполнение!C127&amp;Выполнение!D127&amp;Выполнение!E127</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
@@ -8789,8 +9699,16 @@
         <v>0</v>
       </c>
       <c r="O128" s="4"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P128" s="4">
+        <f>Выполнение!B128</f>
+        <v>0</v>
+      </c>
+      <c r="Q128" s="4" t="str">
+        <f>Выполнение!C128&amp;Выполнение!D128&amp;Выполнение!E128</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
@@ -8827,8 +9745,16 @@
         <v>0</v>
       </c>
       <c r="O129" s="4"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P129" s="4">
+        <f>Выполнение!B129</f>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="4" t="str">
+        <f>Выполнение!C129&amp;Выполнение!D129&amp;Выполнение!E129</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
@@ -8865,8 +9791,16 @@
         <v>0</v>
       </c>
       <c r="O130" s="4"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P130" s="4">
+        <f>Выполнение!B130</f>
+        <v>0</v>
+      </c>
+      <c r="Q130" s="4" t="str">
+        <f>Выполнение!C130&amp;Выполнение!D130&amp;Выполнение!E130</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
@@ -8903,8 +9837,16 @@
         <v>0</v>
       </c>
       <c r="O131" s="4"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P131" s="4">
+        <f>Выполнение!B131</f>
+        <v>0</v>
+      </c>
+      <c r="Q131" s="4" t="str">
+        <f>Выполнение!C131&amp;Выполнение!D131&amp;Выполнение!E131</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
@@ -8941,8 +9883,16 @@
         <v>0</v>
       </c>
       <c r="O132" s="4"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P132" s="4">
+        <f>Выполнение!B132</f>
+        <v>0</v>
+      </c>
+      <c r="Q132" s="4" t="str">
+        <f>Выполнение!C132&amp;Выполнение!D132&amp;Выполнение!E132</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
@@ -8979,8 +9929,16 @@
         <v>0</v>
       </c>
       <c r="O133" s="4"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P133" s="4">
+        <f>Выполнение!B133</f>
+        <v>0</v>
+      </c>
+      <c r="Q133" s="4" t="str">
+        <f>Выполнение!C133&amp;Выполнение!D133&amp;Выполнение!E133</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
@@ -9017,8 +9975,16 @@
         <v>0</v>
       </c>
       <c r="O134" s="4"/>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P134" s="4">
+        <f>Выполнение!B134</f>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="4" t="str">
+        <f>Выполнение!C134&amp;Выполнение!D134&amp;Выполнение!E134</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="10"/>
       <c r="C135" s="10"/>
@@ -9055,8 +10021,16 @@
         <v>0</v>
       </c>
       <c r="O135" s="4"/>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P135" s="4">
+        <f>Выполнение!B135</f>
+        <v>0</v>
+      </c>
+      <c r="Q135" s="4" t="str">
+        <f>Выполнение!C135&amp;Выполнение!D135&amp;Выполнение!E135</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -9093,8 +10067,16 @@
         <v>0</v>
       </c>
       <c r="O136" s="4"/>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P136" s="4">
+        <f>Выполнение!B136</f>
+        <v>0</v>
+      </c>
+      <c r="Q136" s="4" t="str">
+        <f>Выполнение!C136&amp;Выполнение!D136&amp;Выполнение!E136</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -9131,8 +10113,16 @@
         <v>0</v>
       </c>
       <c r="O137" s="4"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P137" s="4">
+        <f>Выполнение!B137</f>
+        <v>0</v>
+      </c>
+      <c r="Q137" s="4" t="str">
+        <f>Выполнение!C137&amp;Выполнение!D137&amp;Выполнение!E137</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="10"/>
       <c r="C138" s="10"/>
@@ -9169,8 +10159,16 @@
         <v>0</v>
       </c>
       <c r="O138" s="4"/>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P138" s="4">
+        <f>Выполнение!B138</f>
+        <v>0</v>
+      </c>
+      <c r="Q138" s="4" t="str">
+        <f>Выполнение!C138&amp;Выполнение!D138&amp;Выполнение!E138</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -9207,8 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O139" s="4"/>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P139" s="4">
+        <f>Выполнение!B139</f>
+        <v>0</v>
+      </c>
+      <c r="Q139" s="4" t="str">
+        <f>Выполнение!C139&amp;Выполнение!D139&amp;Выполнение!E139</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -9245,8 +10251,16 @@
         <v>0</v>
       </c>
       <c r="O140" s="4"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P140" s="4">
+        <f>Выполнение!B140</f>
+        <v>0</v>
+      </c>
+      <c r="Q140" s="4" t="str">
+        <f>Выполнение!C140&amp;Выполнение!D140&amp;Выполнение!E140</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10"/>
       <c r="C141" s="10"/>
@@ -9283,8 +10297,16 @@
         <v>0</v>
       </c>
       <c r="O141" s="4"/>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P141" s="4">
+        <f>Выполнение!B141</f>
+        <v>0</v>
+      </c>
+      <c r="Q141" s="4" t="str">
+        <f>Выполнение!C141&amp;Выполнение!D141&amp;Выполнение!E141</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
@@ -9321,8 +10343,16 @@
         <v>0</v>
       </c>
       <c r="O142" s="4"/>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P142" s="4">
+        <f>Выполнение!B142</f>
+        <v>0</v>
+      </c>
+      <c r="Q142" s="4" t="str">
+        <f>Выполнение!C142&amp;Выполнение!D142&amp;Выполнение!E142</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -9359,8 +10389,16 @@
         <v>0</v>
       </c>
       <c r="O143" s="4"/>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P143" s="4">
+        <f>Выполнение!B143</f>
+        <v>0</v>
+      </c>
+      <c r="Q143" s="4" t="str">
+        <f>Выполнение!C143&amp;Выполнение!D143&amp;Выполнение!E143</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
@@ -9397,8 +10435,16 @@
         <v>0</v>
       </c>
       <c r="O144" s="4"/>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P144" s="4">
+        <f>Выполнение!B144</f>
+        <v>0</v>
+      </c>
+      <c r="Q144" s="4" t="str">
+        <f>Выполнение!C144&amp;Выполнение!D144&amp;Выполнение!E144</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -9435,8 +10481,16 @@
         <v>0</v>
       </c>
       <c r="O145" s="4"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P145" s="4">
+        <f>Выполнение!B145</f>
+        <v>0</v>
+      </c>
+      <c r="Q145" s="4" t="str">
+        <f>Выполнение!C145&amp;Выполнение!D145&amp;Выполнение!E145</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -9473,8 +10527,16 @@
         <v>0</v>
       </c>
       <c r="O146" s="4"/>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P146" s="4">
+        <f>Выполнение!B146</f>
+        <v>0</v>
+      </c>
+      <c r="Q146" s="4" t="str">
+        <f>Выполнение!C146&amp;Выполнение!D146&amp;Выполнение!E146</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
@@ -9511,8 +10573,16 @@
         <v>0</v>
       </c>
       <c r="O147" s="4"/>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P147" s="4">
+        <f>Выполнение!B147</f>
+        <v>0</v>
+      </c>
+      <c r="Q147" s="4" t="str">
+        <f>Выполнение!C147&amp;Выполнение!D147&amp;Выполнение!E147</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
@@ -9549,8 +10619,16 @@
         <v>0</v>
       </c>
       <c r="O148" s="4"/>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P148" s="4">
+        <f>Выполнение!B148</f>
+        <v>0</v>
+      </c>
+      <c r="Q148" s="4" t="str">
+        <f>Выполнение!C148&amp;Выполнение!D148&amp;Выполнение!E148</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
@@ -9587,8 +10665,16 @@
         <v>0</v>
       </c>
       <c r="O149" s="4"/>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P149" s="4">
+        <f>Выполнение!B149</f>
+        <v>0</v>
+      </c>
+      <c r="Q149" s="4" t="str">
+        <f>Выполнение!C149&amp;Выполнение!D149&amp;Выполнение!E149</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10"/>
       <c r="C150" s="10"/>
@@ -9625,8 +10711,16 @@
         <v>0</v>
       </c>
       <c r="O150" s="4"/>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P150" s="4">
+        <f>Выполнение!B150</f>
+        <v>0</v>
+      </c>
+      <c r="Q150" s="4" t="str">
+        <f>Выполнение!C150&amp;Выполнение!D150&amp;Выполнение!E150</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -9663,8 +10757,16 @@
         <v>0</v>
       </c>
       <c r="O151" s="4"/>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P151" s="4">
+        <f>Выполнение!B151</f>
+        <v>0</v>
+      </c>
+      <c r="Q151" s="4" t="str">
+        <f>Выполнение!C151&amp;Выполнение!D151&amp;Выполнение!E151</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -9701,8 +10803,16 @@
         <v>0</v>
       </c>
       <c r="O152" s="4"/>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P152" s="4">
+        <f>Выполнение!B152</f>
+        <v>0</v>
+      </c>
+      <c r="Q152" s="4" t="str">
+        <f>Выполнение!C152&amp;Выполнение!D152&amp;Выполнение!E152</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10"/>
       <c r="C153" s="10"/>
@@ -9739,8 +10849,16 @@
         <v>0</v>
       </c>
       <c r="O153" s="4"/>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P153" s="4">
+        <f>Выполнение!B153</f>
+        <v>0</v>
+      </c>
+      <c r="Q153" s="4" t="str">
+        <f>Выполнение!C153&amp;Выполнение!D153&amp;Выполнение!E153</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
@@ -9777,8 +10895,16 @@
         <v>0</v>
       </c>
       <c r="O154" s="4"/>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P154" s="4">
+        <f>Выполнение!B154</f>
+        <v>0</v>
+      </c>
+      <c r="Q154" s="4" t="str">
+        <f>Выполнение!C154&amp;Выполнение!D154&amp;Выполнение!E154</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -9815,8 +10941,16 @@
         <v>0</v>
       </c>
       <c r="O155" s="4"/>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P155" s="4">
+        <f>Выполнение!B155</f>
+        <v>0</v>
+      </c>
+      <c r="Q155" s="4" t="str">
+        <f>Выполнение!C155&amp;Выполнение!D155&amp;Выполнение!E155</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -9853,8 +10987,16 @@
         <v>0</v>
       </c>
       <c r="O156" s="4"/>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P156" s="4">
+        <f>Выполнение!B156</f>
+        <v>0</v>
+      </c>
+      <c r="Q156" s="4" t="str">
+        <f>Выполнение!C156&amp;Выполнение!D156&amp;Выполнение!E156</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="10"/>
       <c r="C157" s="10"/>
@@ -9891,8 +11033,16 @@
         <v>0</v>
       </c>
       <c r="O157" s="4"/>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P157" s="4">
+        <f>Выполнение!B157</f>
+        <v>0</v>
+      </c>
+      <c r="Q157" s="4" t="str">
+        <f>Выполнение!C157&amp;Выполнение!D157&amp;Выполнение!E157</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="10"/>
       <c r="C158" s="10"/>
@@ -9929,8 +11079,16 @@
         <v>0</v>
       </c>
       <c r="O158" s="4"/>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P158" s="4">
+        <f>Выполнение!B158</f>
+        <v>0</v>
+      </c>
+      <c r="Q158" s="4" t="str">
+        <f>Выполнение!C158&amp;Выполнение!D158&amp;Выполнение!E158</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -9967,8 +11125,16 @@
         <v>0</v>
       </c>
       <c r="O159" s="4"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P159" s="4">
+        <f>Выполнение!B159</f>
+        <v>0</v>
+      </c>
+      <c r="Q159" s="4" t="str">
+        <f>Выполнение!C159&amp;Выполнение!D159&amp;Выполнение!E159</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10"/>
       <c r="C160" s="10"/>
@@ -10005,8 +11171,16 @@
         <v>0</v>
       </c>
       <c r="O160" s="4"/>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P160" s="4">
+        <f>Выполнение!B160</f>
+        <v>0</v>
+      </c>
+      <c r="Q160" s="4" t="str">
+        <f>Выполнение!C160&amp;Выполнение!D160&amp;Выполнение!E160</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10"/>
       <c r="C161" s="10"/>
@@ -10043,8 +11217,16 @@
         <v>0</v>
       </c>
       <c r="O161" s="4"/>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P161" s="4">
+        <f>Выполнение!B161</f>
+        <v>0</v>
+      </c>
+      <c r="Q161" s="4" t="str">
+        <f>Выполнение!C161&amp;Выполнение!D161&amp;Выполнение!E161</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10"/>
       <c r="C162" s="10"/>
@@ -10081,8 +11263,16 @@
         <v>0</v>
       </c>
       <c r="O162" s="4"/>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P162" s="4">
+        <f>Выполнение!B162</f>
+        <v>0</v>
+      </c>
+      <c r="Q162" s="4" t="str">
+        <f>Выполнение!C162&amp;Выполнение!D162&amp;Выполнение!E162</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10"/>
       <c r="C163" s="10"/>
@@ -10119,8 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O163" s="4"/>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P163" s="4">
+        <f>Выполнение!B163</f>
+        <v>0</v>
+      </c>
+      <c r="Q163" s="4" t="str">
+        <f>Выполнение!C163&amp;Выполнение!D163&amp;Выполнение!E163</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10"/>
       <c r="C164" s="10"/>
@@ -10157,8 +11355,16 @@
         <v>0</v>
       </c>
       <c r="O164" s="4"/>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P164" s="4">
+        <f>Выполнение!B164</f>
+        <v>0</v>
+      </c>
+      <c r="Q164" s="4" t="str">
+        <f>Выполнение!C164&amp;Выполнение!D164&amp;Выполнение!E164</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10"/>
       <c r="C165" s="10"/>
@@ -10195,8 +11401,16 @@
         <v>0</v>
       </c>
       <c r="O165" s="4"/>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P165" s="4">
+        <f>Выполнение!B165</f>
+        <v>0</v>
+      </c>
+      <c r="Q165" s="4" t="str">
+        <f>Выполнение!C165&amp;Выполнение!D165&amp;Выполнение!E165</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10"/>
       <c r="C166" s="10"/>
@@ -10233,8 +11447,16 @@
         <v>0</v>
       </c>
       <c r="O166" s="4"/>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P166" s="4">
+        <f>Выполнение!B166</f>
+        <v>0</v>
+      </c>
+      <c r="Q166" s="4" t="str">
+        <f>Выполнение!C166&amp;Выполнение!D166&amp;Выполнение!E166</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10"/>
       <c r="C167" s="10"/>
@@ -10271,8 +11493,16 @@
         <v>0</v>
       </c>
       <c r="O167" s="4"/>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P167" s="4">
+        <f>Выполнение!B167</f>
+        <v>0</v>
+      </c>
+      <c r="Q167" s="4" t="str">
+        <f>Выполнение!C167&amp;Выполнение!D167&amp;Выполнение!E167</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
@@ -10309,8 +11539,16 @@
         <v>0</v>
       </c>
       <c r="O168" s="4"/>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P168" s="4">
+        <f>Выполнение!B168</f>
+        <v>0</v>
+      </c>
+      <c r="Q168" s="4" t="str">
+        <f>Выполнение!C168&amp;Выполнение!D168&amp;Выполнение!E168</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10"/>
       <c r="C169" s="10"/>
@@ -10347,8 +11585,16 @@
         <v>0</v>
       </c>
       <c r="O169" s="4"/>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P169" s="4">
+        <f>Выполнение!B169</f>
+        <v>0</v>
+      </c>
+      <c r="Q169" s="4" t="str">
+        <f>Выполнение!C169&amp;Выполнение!D169&amp;Выполнение!E169</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
@@ -10385,8 +11631,16 @@
         <v>0</v>
       </c>
       <c r="O170" s="4"/>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P170" s="4">
+        <f>Выполнение!B170</f>
+        <v>0</v>
+      </c>
+      <c r="Q170" s="4" t="str">
+        <f>Выполнение!C170&amp;Выполнение!D170&amp;Выполнение!E170</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10"/>
       <c r="C171" s="10"/>
@@ -10423,8 +11677,16 @@
         <v>0</v>
       </c>
       <c r="O171" s="4"/>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P171" s="4">
+        <f>Выполнение!B171</f>
+        <v>0</v>
+      </c>
+      <c r="Q171" s="4" t="str">
+        <f>Выполнение!C171&amp;Выполнение!D171&amp;Выполнение!E171</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10"/>
       <c r="C172" s="10"/>
@@ -10461,8 +11723,16 @@
         <v>0</v>
       </c>
       <c r="O172" s="4"/>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P172" s="4">
+        <f>Выполнение!B172</f>
+        <v>0</v>
+      </c>
+      <c r="Q172" s="4" t="str">
+        <f>Выполнение!C172&amp;Выполнение!D172&amp;Выполнение!E172</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
@@ -10499,8 +11769,16 @@
         <v>0</v>
       </c>
       <c r="O173" s="4"/>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P173" s="4">
+        <f>Выполнение!B173</f>
+        <v>0</v>
+      </c>
+      <c r="Q173" s="4" t="str">
+        <f>Выполнение!C173&amp;Выполнение!D173&amp;Выполнение!E173</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10"/>
       <c r="C174" s="10"/>
@@ -10537,8 +11815,16 @@
         <v>0</v>
       </c>
       <c r="O174" s="4"/>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P174" s="4">
+        <f>Выполнение!B174</f>
+        <v>0</v>
+      </c>
+      <c r="Q174" s="4" t="str">
+        <f>Выполнение!C174&amp;Выполнение!D174&amp;Выполнение!E174</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10"/>
       <c r="C175" s="10"/>
@@ -10575,8 +11861,16 @@
         <v>0</v>
       </c>
       <c r="O175" s="4"/>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P175" s="4">
+        <f>Выполнение!B175</f>
+        <v>0</v>
+      </c>
+      <c r="Q175" s="4" t="str">
+        <f>Выполнение!C175&amp;Выполнение!D175&amp;Выполнение!E175</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10"/>
       <c r="C176" s="10"/>
@@ -10613,8 +11907,16 @@
         <v>0</v>
       </c>
       <c r="O176" s="4"/>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P176" s="4">
+        <f>Выполнение!B176</f>
+        <v>0</v>
+      </c>
+      <c r="Q176" s="4" t="str">
+        <f>Выполнение!C176&amp;Выполнение!D176&amp;Выполнение!E176</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10"/>
       <c r="C177" s="10"/>
@@ -10651,8 +11953,16 @@
         <v>0</v>
       </c>
       <c r="O177" s="4"/>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P177" s="4">
+        <f>Выполнение!B177</f>
+        <v>0</v>
+      </c>
+      <c r="Q177" s="4" t="str">
+        <f>Выполнение!C177&amp;Выполнение!D177&amp;Выполнение!E177</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10"/>
       <c r="C178" s="10"/>
@@ -10689,8 +11999,16 @@
         <v>0</v>
       </c>
       <c r="O178" s="4"/>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P178" s="4">
+        <f>Выполнение!B178</f>
+        <v>0</v>
+      </c>
+      <c r="Q178" s="4" t="str">
+        <f>Выполнение!C178&amp;Выполнение!D178&amp;Выполнение!E178</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10"/>
       <c r="C179" s="10"/>
@@ -10727,8 +12045,16 @@
         <v>0</v>
       </c>
       <c r="O179" s="4"/>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P179" s="4">
+        <f>Выполнение!B179</f>
+        <v>0</v>
+      </c>
+      <c r="Q179" s="4" t="str">
+        <f>Выполнение!C179&amp;Выполнение!D179&amp;Выполнение!E179</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
@@ -10765,8 +12091,16 @@
         <v>0</v>
       </c>
       <c r="O180" s="4"/>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P180" s="4">
+        <f>Выполнение!B180</f>
+        <v>0</v>
+      </c>
+      <c r="Q180" s="4" t="str">
+        <f>Выполнение!C180&amp;Выполнение!D180&amp;Выполнение!E180</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10"/>
       <c r="C181" s="10"/>
@@ -10803,8 +12137,16 @@
         <v>0</v>
       </c>
       <c r="O181" s="4"/>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P181" s="4">
+        <f>Выполнение!B181</f>
+        <v>0</v>
+      </c>
+      <c r="Q181" s="4" t="str">
+        <f>Выполнение!C181&amp;Выполнение!D181&amp;Выполнение!E181</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="10"/>
       <c r="B182" s="10"/>
       <c r="C182" s="10"/>
@@ -10841,8 +12183,16 @@
         <v>0</v>
       </c>
       <c r="O182" s="4"/>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P182" s="4">
+        <f>Выполнение!B182</f>
+        <v>0</v>
+      </c>
+      <c r="Q182" s="4" t="str">
+        <f>Выполнение!C182&amp;Выполнение!D182&amp;Выполнение!E182</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10"/>
       <c r="C183" s="10"/>
@@ -10879,8 +12229,16 @@
         <v>0</v>
       </c>
       <c r="O183" s="4"/>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P183" s="4">
+        <f>Выполнение!B183</f>
+        <v>0</v>
+      </c>
+      <c r="Q183" s="4" t="str">
+        <f>Выполнение!C183&amp;Выполнение!D183&amp;Выполнение!E183</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10"/>
       <c r="C184" s="10"/>
@@ -10917,8 +12275,16 @@
         <v>0</v>
       </c>
       <c r="O184" s="4"/>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P184" s="4">
+        <f>Выполнение!B184</f>
+        <v>0</v>
+      </c>
+      <c r="Q184" s="4" t="str">
+        <f>Выполнение!C184&amp;Выполнение!D184&amp;Выполнение!E184</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
@@ -10955,8 +12321,16 @@
         <v>0</v>
       </c>
       <c r="O185" s="4"/>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P185" s="4">
+        <f>Выполнение!B185</f>
+        <v>0</v>
+      </c>
+      <c r="Q185" s="4" t="str">
+        <f>Выполнение!C185&amp;Выполнение!D185&amp;Выполнение!E185</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10"/>
       <c r="C186" s="10"/>
@@ -10993,8 +12367,16 @@
         <v>0</v>
       </c>
       <c r="O186" s="4"/>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P186" s="4">
+        <f>Выполнение!B186</f>
+        <v>0</v>
+      </c>
+      <c r="Q186" s="4" t="str">
+        <f>Выполнение!C186&amp;Выполнение!D186&amp;Выполнение!E186</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10"/>
       <c r="C187" s="10"/>
@@ -11031,8 +12413,16 @@
         <v>0</v>
       </c>
       <c r="O187" s="4"/>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P187" s="4">
+        <f>Выполнение!B187</f>
+        <v>0</v>
+      </c>
+      <c r="Q187" s="4" t="str">
+        <f>Выполнение!C187&amp;Выполнение!D187&amp;Выполнение!E187</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10"/>
       <c r="C188" s="10"/>
@@ -11069,8 +12459,16 @@
         <v>0</v>
       </c>
       <c r="O188" s="4"/>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P188" s="4">
+        <f>Выполнение!B188</f>
+        <v>0</v>
+      </c>
+      <c r="Q188" s="4" t="str">
+        <f>Выполнение!C188&amp;Выполнение!D188&amp;Выполнение!E188</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -11107,8 +12505,16 @@
         <v>0</v>
       </c>
       <c r="O189" s="4"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P189" s="4">
+        <f>Выполнение!B189</f>
+        <v>0</v>
+      </c>
+      <c r="Q189" s="4" t="str">
+        <f>Выполнение!C189&amp;Выполнение!D189&amp;Выполнение!E189</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10"/>
       <c r="C190" s="10"/>
@@ -11145,8 +12551,16 @@
         <v>0</v>
       </c>
       <c r="O190" s="4"/>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P190" s="4">
+        <f>Выполнение!B190</f>
+        <v>0</v>
+      </c>
+      <c r="Q190" s="4" t="str">
+        <f>Выполнение!C190&amp;Выполнение!D190&amp;Выполнение!E190</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10"/>
       <c r="C191" s="10"/>
@@ -11183,8 +12597,16 @@
         <v>0</v>
       </c>
       <c r="O191" s="4"/>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P191" s="4">
+        <f>Выполнение!B191</f>
+        <v>0</v>
+      </c>
+      <c r="Q191" s="4" t="str">
+        <f>Выполнение!C191&amp;Выполнение!D191&amp;Выполнение!E191</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10"/>
       <c r="C192" s="10"/>
@@ -11221,8 +12643,16 @@
         <v>0</v>
       </c>
       <c r="O192" s="4"/>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P192" s="4">
+        <f>Выполнение!B192</f>
+        <v>0</v>
+      </c>
+      <c r="Q192" s="4" t="str">
+        <f>Выполнение!C192&amp;Выполнение!D192&amp;Выполнение!E192</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
@@ -11259,8 +12689,16 @@
         <v>0</v>
       </c>
       <c r="O193" s="4"/>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P193" s="4">
+        <f>Выполнение!B193</f>
+        <v>0</v>
+      </c>
+      <c r="Q193" s="4" t="str">
+        <f>Выполнение!C193&amp;Выполнение!D193&amp;Выполнение!E193</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
@@ -11297,8 +12735,16 @@
         <v>0</v>
       </c>
       <c r="O194" s="4"/>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P194" s="4">
+        <f>Выполнение!B194</f>
+        <v>0</v>
+      </c>
+      <c r="Q194" s="4" t="str">
+        <f>Выполнение!C194&amp;Выполнение!D194&amp;Выполнение!E194</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10"/>
       <c r="C195" s="10"/>
@@ -11335,8 +12781,16 @@
         <v>0</v>
       </c>
       <c r="O195" s="4"/>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P195" s="4">
+        <f>Выполнение!B195</f>
+        <v>0</v>
+      </c>
+      <c r="Q195" s="4" t="str">
+        <f>Выполнение!C195&amp;Выполнение!D195&amp;Выполнение!E195</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10"/>
       <c r="C196" s="10"/>
@@ -11373,8 +12827,16 @@
         <v>0</v>
       </c>
       <c r="O196" s="4"/>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P196" s="4">
+        <f>Выполнение!B196</f>
+        <v>0</v>
+      </c>
+      <c r="Q196" s="4" t="str">
+        <f>Выполнение!C196&amp;Выполнение!D196&amp;Выполнение!E196</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="10"/>
       <c r="C197" s="10"/>
@@ -11411,8 +12873,16 @@
         <v>0</v>
       </c>
       <c r="O197" s="4"/>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P197" s="4">
+        <f>Выполнение!B197</f>
+        <v>0</v>
+      </c>
+      <c r="Q197" s="4" t="str">
+        <f>Выполнение!C197&amp;Выполнение!D197&amp;Выполнение!E197</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10"/>
       <c r="C198" s="10"/>
@@ -11449,8 +12919,16 @@
         <v>0</v>
       </c>
       <c r="O198" s="4"/>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P198" s="4">
+        <f>Выполнение!B198</f>
+        <v>0</v>
+      </c>
+      <c r="Q198" s="4" t="str">
+        <f>Выполнение!C198&amp;Выполнение!D198&amp;Выполнение!E198</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="10"/>
       <c r="C199" s="10"/>
@@ -11487,8 +12965,16 @@
         <v>0</v>
       </c>
       <c r="O199" s="4"/>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P199" s="4">
+        <f>Выполнение!B199</f>
+        <v>0</v>
+      </c>
+      <c r="Q199" s="4" t="str">
+        <f>Выполнение!C199&amp;Выполнение!D199&amp;Выполнение!E199</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="10"/>
       <c r="C200" s="10"/>
@@ -11525,8 +13011,16 @@
         <v>0</v>
       </c>
       <c r="O200" s="4"/>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P200" s="4">
+        <f>Выполнение!B200</f>
+        <v>0</v>
+      </c>
+      <c r="Q200" s="4" t="str">
+        <f>Выполнение!C200&amp;Выполнение!D200&amp;Выполнение!E200</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -11563,8 +13057,16 @@
         <v>0</v>
       </c>
       <c r="O201" s="4"/>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P201" s="4">
+        <f>Выполнение!B201</f>
+        <v>0</v>
+      </c>
+      <c r="Q201" s="4" t="str">
+        <f>Выполнение!C201&amp;Выполнение!D201&amp;Выполнение!E201</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10"/>
       <c r="C202" s="10"/>
@@ -11601,8 +13103,16 @@
         <v>0</v>
       </c>
       <c r="O202" s="4"/>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P202" s="4">
+        <f>Выполнение!B202</f>
+        <v>0</v>
+      </c>
+      <c r="Q202" s="4" t="str">
+        <f>Выполнение!C202&amp;Выполнение!D202&amp;Выполнение!E202</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
@@ -11639,8 +13149,16 @@
         <v>0</v>
       </c>
       <c r="O203" s="4"/>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P203" s="4">
+        <f>Выполнение!B203</f>
+        <v>0</v>
+      </c>
+      <c r="Q203" s="4" t="str">
+        <f>Выполнение!C203&amp;Выполнение!D203&amp;Выполнение!E203</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
@@ -11677,8 +13195,16 @@
         <v>0</v>
       </c>
       <c r="O204" s="4"/>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P204" s="4">
+        <f>Выполнение!B204</f>
+        <v>0</v>
+      </c>
+      <c r="Q204" s="4" t="str">
+        <f>Выполнение!C204&amp;Выполнение!D204&amp;Выполнение!E204</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10"/>
       <c r="C205" s="10"/>
@@ -11715,8 +13241,16 @@
         <v>0</v>
       </c>
       <c r="O205" s="4"/>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P205" s="4">
+        <f>Выполнение!B205</f>
+        <v>0</v>
+      </c>
+      <c r="Q205" s="4" t="str">
+        <f>Выполнение!C205&amp;Выполнение!D205&amp;Выполнение!E205</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10"/>
       <c r="C206" s="10"/>
@@ -11753,8 +13287,16 @@
         <v>0</v>
       </c>
       <c r="O206" s="4"/>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P206" s="4">
+        <f>Выполнение!B206</f>
+        <v>0</v>
+      </c>
+      <c r="Q206" s="4" t="str">
+        <f>Выполнение!C206&amp;Выполнение!D206&amp;Выполнение!E206</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10"/>
       <c r="C207" s="10"/>
@@ -11791,8 +13333,16 @@
         <v>0</v>
       </c>
       <c r="O207" s="4"/>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P207" s="4">
+        <f>Выполнение!B207</f>
+        <v>0</v>
+      </c>
+      <c r="Q207" s="4" t="str">
+        <f>Выполнение!C207&amp;Выполнение!D207&amp;Выполнение!E207</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10"/>
       <c r="C208" s="10"/>
@@ -11829,8 +13379,16 @@
         <v>0</v>
       </c>
       <c r="O208" s="4"/>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P208" s="4">
+        <f>Выполнение!B208</f>
+        <v>0</v>
+      </c>
+      <c r="Q208" s="4" t="str">
+        <f>Выполнение!C208&amp;Выполнение!D208&amp;Выполнение!E208</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10"/>
       <c r="C209" s="10"/>
@@ -11867,8 +13425,16 @@
         <v>0</v>
       </c>
       <c r="O209" s="4"/>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P209" s="4">
+        <f>Выполнение!B209</f>
+        <v>0</v>
+      </c>
+      <c r="Q209" s="4" t="str">
+        <f>Выполнение!C209&amp;Выполнение!D209&amp;Выполнение!E209</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10"/>
       <c r="C210" s="10"/>
@@ -11905,8 +13471,16 @@
         <v>0</v>
       </c>
       <c r="O210" s="4"/>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P210" s="4">
+        <f>Выполнение!B210</f>
+        <v>0</v>
+      </c>
+      <c r="Q210" s="4" t="str">
+        <f>Выполнение!C210&amp;Выполнение!D210&amp;Выполнение!E210</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10"/>
       <c r="C211" s="10"/>
@@ -11943,8 +13517,16 @@
         <v>0</v>
       </c>
       <c r="O211" s="4"/>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P211" s="4">
+        <f>Выполнение!B211</f>
+        <v>0</v>
+      </c>
+      <c r="Q211" s="4" t="str">
+        <f>Выполнение!C211&amp;Выполнение!D211&amp;Выполнение!E211</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10"/>
       <c r="C212" s="10"/>
@@ -11981,8 +13563,16 @@
         <v>0</v>
       </c>
       <c r="O212" s="4"/>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P212" s="4">
+        <f>Выполнение!B212</f>
+        <v>0</v>
+      </c>
+      <c r="Q212" s="4" t="str">
+        <f>Выполнение!C212&amp;Выполнение!D212&amp;Выполнение!E212</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
       <c r="C213" s="10"/>
@@ -12019,8 +13609,16 @@
         <v>0</v>
       </c>
       <c r="O213" s="4"/>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P213" s="4">
+        <f>Выполнение!B213</f>
+        <v>0</v>
+      </c>
+      <c r="Q213" s="4" t="str">
+        <f>Выполнение!C213&amp;Выполнение!D213&amp;Выполнение!E213</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="10"/>
@@ -12057,8 +13655,16 @@
         <v>0</v>
       </c>
       <c r="O214" s="4"/>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P214" s="4">
+        <f>Выполнение!B214</f>
+        <v>0</v>
+      </c>
+      <c r="Q214" s="4" t="str">
+        <f>Выполнение!C214&amp;Выполнение!D214&amp;Выполнение!E214</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10"/>
       <c r="C215" s="10"/>
@@ -12095,8 +13701,16 @@
         <v>0</v>
       </c>
       <c r="O215" s="4"/>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P215" s="4">
+        <f>Выполнение!B215</f>
+        <v>0</v>
+      </c>
+      <c r="Q215" s="4" t="str">
+        <f>Выполнение!C215&amp;Выполнение!D215&amp;Выполнение!E215</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10"/>
       <c r="C216" s="10"/>
@@ -12133,8 +13747,16 @@
         <v>0</v>
       </c>
       <c r="O216" s="4"/>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P216" s="4">
+        <f>Выполнение!B216</f>
+        <v>0</v>
+      </c>
+      <c r="Q216" s="4" t="str">
+        <f>Выполнение!C216&amp;Выполнение!D216&amp;Выполнение!E216</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="10"/>
@@ -12171,8 +13793,16 @@
         <v>0</v>
       </c>
       <c r="O217" s="4"/>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P217" s="4">
+        <f>Выполнение!B217</f>
+        <v>0</v>
+      </c>
+      <c r="Q217" s="4" t="str">
+        <f>Выполнение!C217&amp;Выполнение!D217&amp;Выполнение!E217</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="10"/>
@@ -12209,8 +13839,16 @@
         <v>0</v>
       </c>
       <c r="O218" s="4"/>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P218" s="4">
+        <f>Выполнение!B218</f>
+        <v>0</v>
+      </c>
+      <c r="Q218" s="4" t="str">
+        <f>Выполнение!C218&amp;Выполнение!D218&amp;Выполнение!E218</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="10"/>
@@ -12247,8 +13885,16 @@
         <v>0</v>
       </c>
       <c r="O219" s="4"/>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P219" s="4">
+        <f>Выполнение!B219</f>
+        <v>0</v>
+      </c>
+      <c r="Q219" s="4" t="str">
+        <f>Выполнение!C219&amp;Выполнение!D219&amp;Выполнение!E219</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10"/>
       <c r="C220" s="10"/>
@@ -12285,8 +13931,16 @@
         <v>0</v>
       </c>
       <c r="O220" s="4"/>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P220" s="4">
+        <f>Выполнение!B220</f>
+        <v>0</v>
+      </c>
+      <c r="Q220" s="4" t="str">
+        <f>Выполнение!C220&amp;Выполнение!D220&amp;Выполнение!E220</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="10"/>
@@ -12323,8 +13977,16 @@
         <v>0</v>
       </c>
       <c r="O221" s="4"/>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P221" s="4">
+        <f>Выполнение!B221</f>
+        <v>0</v>
+      </c>
+      <c r="Q221" s="4" t="str">
+        <f>Выполнение!C221&amp;Выполнение!D221&amp;Выполнение!E221</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="10"/>
@@ -12361,8 +14023,16 @@
         <v>0</v>
       </c>
       <c r="O222" s="4"/>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P222" s="4">
+        <f>Выполнение!B222</f>
+        <v>0</v>
+      </c>
+      <c r="Q222" s="4" t="str">
+        <f>Выполнение!C222&amp;Выполнение!D222&amp;Выполнение!E222</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="10"/>
@@ -12399,8 +14069,16 @@
         <v>0</v>
       </c>
       <c r="O223" s="4"/>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P223" s="4">
+        <f>Выполнение!B223</f>
+        <v>0</v>
+      </c>
+      <c r="Q223" s="4" t="str">
+        <f>Выполнение!C223&amp;Выполнение!D223&amp;Выполнение!E223</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
       <c r="C224" s="10"/>
@@ -12437,8 +14115,16 @@
         <v>0</v>
       </c>
       <c r="O224" s="4"/>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P224" s="4">
+        <f>Выполнение!B224</f>
+        <v>0</v>
+      </c>
+      <c r="Q224" s="4" t="str">
+        <f>Выполнение!C224&amp;Выполнение!D224&amp;Выполнение!E224</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
       <c r="C225" s="10"/>
@@ -12475,8 +14161,16 @@
         <v>0</v>
       </c>
       <c r="O225" s="4"/>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P225" s="4">
+        <f>Выполнение!B225</f>
+        <v>0</v>
+      </c>
+      <c r="Q225" s="4" t="str">
+        <f>Выполнение!C225&amp;Выполнение!D225&amp;Выполнение!E225</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="10"/>
@@ -12513,8 +14207,16 @@
         <v>0</v>
       </c>
       <c r="O226" s="4"/>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P226" s="4">
+        <f>Выполнение!B226</f>
+        <v>0</v>
+      </c>
+      <c r="Q226" s="4" t="str">
+        <f>Выполнение!C226&amp;Выполнение!D226&amp;Выполнение!E226</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10"/>
       <c r="C227" s="10"/>
@@ -12551,8 +14253,16 @@
         <v>0</v>
       </c>
       <c r="O227" s="4"/>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P227" s="4">
+        <f>Выполнение!B227</f>
+        <v>0</v>
+      </c>
+      <c r="Q227" s="4" t="str">
+        <f>Выполнение!C227&amp;Выполнение!D227&amp;Выполнение!E227</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -12589,8 +14299,16 @@
         <v>0</v>
       </c>
       <c r="O228" s="4"/>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P228" s="4">
+        <f>Выполнение!B228</f>
+        <v>0</v>
+      </c>
+      <c r="Q228" s="4" t="str">
+        <f>Выполнение!C228&amp;Выполнение!D228&amp;Выполнение!E228</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
       <c r="C229" s="10"/>
@@ -12627,8 +14345,16 @@
         <v>0</v>
       </c>
       <c r="O229" s="4"/>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P229" s="4">
+        <f>Выполнение!B229</f>
+        <v>0</v>
+      </c>
+      <c r="Q229" s="4" t="str">
+        <f>Выполнение!C229&amp;Выполнение!D229&amp;Выполнение!E229</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
       <c r="C230" s="10"/>
@@ -12665,8 +14391,16 @@
         <v>0</v>
       </c>
       <c r="O230" s="4"/>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P230" s="4">
+        <f>Выполнение!B230</f>
+        <v>0</v>
+      </c>
+      <c r="Q230" s="4" t="str">
+        <f>Выполнение!C230&amp;Выполнение!D230&amp;Выполнение!E230</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10"/>
       <c r="C231" s="10"/>
@@ -12703,8 +14437,16 @@
         <v>0</v>
       </c>
       <c r="O231" s="4"/>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P231" s="4">
+        <f>Выполнение!B231</f>
+        <v>0</v>
+      </c>
+      <c r="Q231" s="4" t="str">
+        <f>Выполнение!C231&amp;Выполнение!D231&amp;Выполнение!E231</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -12741,8 +14483,16 @@
         <v>0</v>
       </c>
       <c r="O232" s="4"/>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P232" s="4">
+        <f>Выполнение!B232</f>
+        <v>0</v>
+      </c>
+      <c r="Q232" s="4" t="str">
+        <f>Выполнение!C232&amp;Выполнение!D232&amp;Выполнение!E232</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -12779,8 +14529,16 @@
         <v>0</v>
       </c>
       <c r="O233" s="4"/>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P233" s="4">
+        <f>Выполнение!B233</f>
+        <v>0</v>
+      </c>
+      <c r="Q233" s="4" t="str">
+        <f>Выполнение!C233&amp;Выполнение!D233&amp;Выполнение!E233</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="10"/>
       <c r="C234" s="10"/>
@@ -12817,8 +14575,16 @@
         <v>0</v>
       </c>
       <c r="O234" s="4"/>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P234" s="4">
+        <f>Выполнение!B234</f>
+        <v>0</v>
+      </c>
+      <c r="Q234" s="4" t="str">
+        <f>Выполнение!C234&amp;Выполнение!D234&amp;Выполнение!E234</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10"/>
       <c r="C235" s="10"/>
@@ -12855,8 +14621,16 @@
         <v>0</v>
       </c>
       <c r="O235" s="4"/>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P235" s="4">
+        <f>Выполнение!B235</f>
+        <v>0</v>
+      </c>
+      <c r="Q235" s="4" t="str">
+        <f>Выполнение!C235&amp;Выполнение!D235&amp;Выполнение!E235</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="10"/>
       <c r="C236" s="10"/>
@@ -12893,8 +14667,16 @@
         <v>0</v>
       </c>
       <c r="O236" s="4"/>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P236" s="4">
+        <f>Выполнение!B236</f>
+        <v>0</v>
+      </c>
+      <c r="Q236" s="4" t="str">
+        <f>Выполнение!C236&amp;Выполнение!D236&amp;Выполнение!E236</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10"/>
       <c r="C237" s="10"/>
@@ -12931,8 +14713,16 @@
         <v>0</v>
       </c>
       <c r="O237" s="4"/>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P237" s="4">
+        <f>Выполнение!B237</f>
+        <v>0</v>
+      </c>
+      <c r="Q237" s="4" t="str">
+        <f>Выполнение!C237&amp;Выполнение!D237&amp;Выполнение!E237</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10"/>
       <c r="C238" s="10"/>
@@ -12969,8 +14759,16 @@
         <v>0</v>
       </c>
       <c r="O238" s="4"/>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P238" s="4">
+        <f>Выполнение!B238</f>
+        <v>0</v>
+      </c>
+      <c r="Q238" s="4" t="str">
+        <f>Выполнение!C238&amp;Выполнение!D238&amp;Выполнение!E238</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10"/>
       <c r="C239" s="10"/>
@@ -13007,8 +14805,16 @@
         <v>0</v>
       </c>
       <c r="O239" s="4"/>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P239" s="4">
+        <f>Выполнение!B239</f>
+        <v>0</v>
+      </c>
+      <c r="Q239" s="4" t="str">
+        <f>Выполнение!C239&amp;Выполнение!D239&amp;Выполнение!E239</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10"/>
       <c r="C240" s="10"/>
@@ -13045,8 +14851,16 @@
         <v>0</v>
       </c>
       <c r="O240" s="4"/>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P240" s="4">
+        <f>Выполнение!B240</f>
+        <v>0</v>
+      </c>
+      <c r="Q240" s="4" t="str">
+        <f>Выполнение!C240&amp;Выполнение!D240&amp;Выполнение!E240</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10"/>
       <c r="C241" s="10"/>
@@ -13083,8 +14897,16 @@
         <v>0</v>
       </c>
       <c r="O241" s="4"/>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P241" s="4">
+        <f>Выполнение!B241</f>
+        <v>0</v>
+      </c>
+      <c r="Q241" s="4" t="str">
+        <f>Выполнение!C241&amp;Выполнение!D241&amp;Выполнение!E241</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10"/>
       <c r="C242" s="10"/>
@@ -13121,8 +14943,16 @@
         <v>0</v>
       </c>
       <c r="O242" s="4"/>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P242" s="4">
+        <f>Выполнение!B242</f>
+        <v>0</v>
+      </c>
+      <c r="Q242" s="4" t="str">
+        <f>Выполнение!C242&amp;Выполнение!D242&amp;Выполнение!E242</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10"/>
       <c r="C243" s="10"/>
@@ -13159,8 +14989,16 @@
         <v>0</v>
       </c>
       <c r="O243" s="4"/>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P243" s="4">
+        <f>Выполнение!B243</f>
+        <v>0</v>
+      </c>
+      <c r="Q243" s="4" t="str">
+        <f>Выполнение!C243&amp;Выполнение!D243&amp;Выполнение!E243</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10"/>
       <c r="C244" s="10"/>
@@ -13197,8 +15035,16 @@
         <v>0</v>
       </c>
       <c r="O244" s="4"/>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P244" s="4">
+        <f>Выполнение!B244</f>
+        <v>0</v>
+      </c>
+      <c r="Q244" s="4" t="str">
+        <f>Выполнение!C244&amp;Выполнение!D244&amp;Выполнение!E244</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="10"/>
       <c r="C245" s="10"/>
@@ -13235,8 +15081,16 @@
         <v>0</v>
       </c>
       <c r="O245" s="4"/>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P245" s="4">
+        <f>Выполнение!B245</f>
+        <v>0</v>
+      </c>
+      <c r="Q245" s="4" t="str">
+        <f>Выполнение!C245&amp;Выполнение!D245&amp;Выполнение!E245</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="10"/>
       <c r="C246" s="10"/>
@@ -13273,8 +15127,16 @@
         <v>0</v>
       </c>
       <c r="O246" s="4"/>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P246" s="4">
+        <f>Выполнение!B246</f>
+        <v>0</v>
+      </c>
+      <c r="Q246" s="4" t="str">
+        <f>Выполнение!C246&amp;Выполнение!D246&amp;Выполнение!E246</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="10"/>
       <c r="C247" s="10"/>
@@ -13311,8 +15173,16 @@
         <v>0</v>
       </c>
       <c r="O247" s="4"/>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P247" s="4">
+        <f>Выполнение!B247</f>
+        <v>0</v>
+      </c>
+      <c r="Q247" s="4" t="str">
+        <f>Выполнение!C247&amp;Выполнение!D247&amp;Выполнение!E247</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="10"/>
       <c r="C248" s="10"/>
@@ -13349,8 +15219,16 @@
         <v>0</v>
       </c>
       <c r="O248" s="4"/>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P248" s="4">
+        <f>Выполнение!B248</f>
+        <v>0</v>
+      </c>
+      <c r="Q248" s="4" t="str">
+        <f>Выполнение!C248&amp;Выполнение!D248&amp;Выполнение!E248</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="10"/>
       <c r="C249" s="10"/>
@@ -13387,8 +15265,16 @@
         <v>0</v>
       </c>
       <c r="O249" s="4"/>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P249" s="4">
+        <f>Выполнение!B249</f>
+        <v>0</v>
+      </c>
+      <c r="Q249" s="4" t="str">
+        <f>Выполнение!C249&amp;Выполнение!D249&amp;Выполнение!E249</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="10"/>
       <c r="C250" s="10"/>
@@ -13425,8 +15311,16 @@
         <v>0</v>
       </c>
       <c r="O250" s="4"/>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P250" s="4">
+        <f>Выполнение!B250</f>
+        <v>0</v>
+      </c>
+      <c r="Q250" s="4" t="str">
+        <f>Выполнение!C250&amp;Выполнение!D250&amp;Выполнение!E250</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
       <c r="B251" s="10"/>
       <c r="C251" s="10"/>
@@ -13463,8 +15357,16 @@
         <v>0</v>
       </c>
       <c r="O251" s="4"/>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P251" s="4">
+        <f>Выполнение!B251</f>
+        <v>0</v>
+      </c>
+      <c r="Q251" s="4" t="str">
+        <f>Выполнение!C251&amp;Выполнение!D251&amp;Выполнение!E251</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -13501,8 +15403,16 @@
         <v>0</v>
       </c>
       <c r="O252" s="4"/>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P252" s="4">
+        <f>Выполнение!B252</f>
+        <v>0</v>
+      </c>
+      <c r="Q252" s="4" t="str">
+        <f>Выполнение!C252&amp;Выполнение!D252&amp;Выполнение!E252</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="10"/>
       <c r="C253" s="10"/>
@@ -13539,8 +15449,16 @@
         <v>0</v>
       </c>
       <c r="O253" s="4"/>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P253" s="4">
+        <f>Выполнение!B253</f>
+        <v>0</v>
+      </c>
+      <c r="Q253" s="4" t="str">
+        <f>Выполнение!C253&amp;Выполнение!D253&amp;Выполнение!E253</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="10"/>
       <c r="C254" s="10"/>
@@ -13577,8 +15495,16 @@
         <v>0</v>
       </c>
       <c r="O254" s="4"/>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P254" s="4">
+        <f>Выполнение!B254</f>
+        <v>0</v>
+      </c>
+      <c r="Q254" s="4" t="str">
+        <f>Выполнение!C254&amp;Выполнение!D254&amp;Выполнение!E254</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="10"/>
       <c r="C255" s="10"/>
@@ -13615,8 +15541,16 @@
         <v>0</v>
       </c>
       <c r="O255" s="4"/>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P255" s="4">
+        <f>Выполнение!B255</f>
+        <v>0</v>
+      </c>
+      <c r="Q255" s="4" t="str">
+        <f>Выполнение!C255&amp;Выполнение!D255&amp;Выполнение!E255</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A256" s="10"/>
       <c r="B256" s="10"/>
       <c r="C256" s="10"/>
@@ -13653,8 +15587,16 @@
         <v>0</v>
       </c>
       <c r="O256" s="4"/>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P256" s="4">
+        <f>Выполнение!B256</f>
+        <v>0</v>
+      </c>
+      <c r="Q256" s="4" t="str">
+        <f>Выполнение!C256&amp;Выполнение!D256&amp;Выполнение!E256</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A257" s="10"/>
       <c r="B257" s="10"/>
       <c r="C257" s="10"/>
@@ -13691,8 +15633,16 @@
         <v>0</v>
       </c>
       <c r="O257" s="4"/>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P257" s="4">
+        <f>Выполнение!B257</f>
+        <v>0</v>
+      </c>
+      <c r="Q257" s="4" t="str">
+        <f>Выполнение!C257&amp;Выполнение!D257&amp;Выполнение!E257</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A258" s="10"/>
       <c r="B258" s="10"/>
       <c r="C258" s="10"/>
@@ -13729,8 +15679,16 @@
         <v>0</v>
       </c>
       <c r="O258" s="4"/>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P258" s="4">
+        <f>Выполнение!B258</f>
+        <v>0</v>
+      </c>
+      <c r="Q258" s="4" t="str">
+        <f>Выполнение!C258&amp;Выполнение!D258&amp;Выполнение!E258</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A259" s="10"/>
       <c r="B259" s="10"/>
       <c r="C259" s="10"/>
@@ -13767,8 +15725,16 @@
         <v>0</v>
       </c>
       <c r="O259" s="4"/>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P259" s="4">
+        <f>Выполнение!B259</f>
+        <v>0</v>
+      </c>
+      <c r="Q259" s="4" t="str">
+        <f>Выполнение!C259&amp;Выполнение!D259&amp;Выполнение!E259</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" s="10"/>
       <c r="C260" s="10"/>
@@ -13805,8 +15771,16 @@
         <v>0</v>
       </c>
       <c r="O260" s="4"/>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P260" s="4">
+        <f>Выполнение!B260</f>
+        <v>0</v>
+      </c>
+      <c r="Q260" s="4" t="str">
+        <f>Выполнение!C260&amp;Выполнение!D260&amp;Выполнение!E260</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A261" s="10"/>
       <c r="B261" s="10"/>
       <c r="C261" s="10"/>
@@ -13843,8 +15817,16 @@
         <v>0</v>
       </c>
       <c r="O261" s="4"/>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P261" s="4">
+        <f>Выполнение!B261</f>
+        <v>0</v>
+      </c>
+      <c r="Q261" s="4" t="str">
+        <f>Выполнение!C261&amp;Выполнение!D261&amp;Выполнение!E261</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A262" s="10"/>
       <c r="B262" s="10"/>
       <c r="C262" s="10"/>
@@ -13881,8 +15863,16 @@
         <v>0</v>
       </c>
       <c r="O262" s="4"/>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P262" s="4">
+        <f>Выполнение!B262</f>
+        <v>0</v>
+      </c>
+      <c r="Q262" s="4" t="str">
+        <f>Выполнение!C262&amp;Выполнение!D262&amp;Выполнение!E262</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="B263" s="10"/>
       <c r="C263" s="10"/>
@@ -13919,8 +15909,16 @@
         <v>0</v>
       </c>
       <c r="O263" s="4"/>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P263" s="4">
+        <f>Выполнение!B263</f>
+        <v>0</v>
+      </c>
+      <c r="Q263" s="4" t="str">
+        <f>Выполнение!C263&amp;Выполнение!D263&amp;Выполнение!E263</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="10"/>
       <c r="C264" s="10"/>
@@ -13957,8 +15955,16 @@
         <v>0</v>
       </c>
       <c r="O264" s="4"/>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P264" s="4">
+        <f>Выполнение!B264</f>
+        <v>0</v>
+      </c>
+      <c r="Q264" s="4" t="str">
+        <f>Выполнение!C264&amp;Выполнение!D264&amp;Выполнение!E264</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A265" s="10"/>
       <c r="B265" s="10"/>
       <c r="C265" s="10"/>
@@ -13995,8 +16001,16 @@
         <v>0</v>
       </c>
       <c r="O265" s="4"/>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P265" s="4">
+        <f>Выполнение!B265</f>
+        <v>0</v>
+      </c>
+      <c r="Q265" s="4" t="str">
+        <f>Выполнение!C265&amp;Выполнение!D265&amp;Выполнение!E265</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="10"/>
       <c r="C266" s="10"/>
@@ -14033,8 +16047,16 @@
         <v>0</v>
       </c>
       <c r="O266" s="4"/>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P266" s="4">
+        <f>Выполнение!B266</f>
+        <v>0</v>
+      </c>
+      <c r="Q266" s="4" t="str">
+        <f>Выполнение!C266&amp;Выполнение!D266&amp;Выполнение!E266</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -14071,8 +16093,16 @@
         <v>0</v>
       </c>
       <c r="O267" s="4"/>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P267" s="4">
+        <f>Выполнение!B267</f>
+        <v>0</v>
+      </c>
+      <c r="Q267" s="4" t="str">
+        <f>Выполнение!C267&amp;Выполнение!D267&amp;Выполнение!E267</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="10"/>
       <c r="C268" s="10"/>
@@ -14109,8 +16139,16 @@
         <v>0</v>
       </c>
       <c r="O268" s="4"/>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P268" s="4">
+        <f>Выполнение!B268</f>
+        <v>0</v>
+      </c>
+      <c r="Q268" s="4" t="str">
+        <f>Выполнение!C268&amp;Выполнение!D268&amp;Выполнение!E268</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" s="10"/>
       <c r="C269" s="10"/>
@@ -14147,8 +16185,16 @@
         <v>0</v>
       </c>
       <c r="O269" s="4"/>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P269" s="4">
+        <f>Выполнение!B269</f>
+        <v>0</v>
+      </c>
+      <c r="Q269" s="4" t="str">
+        <f>Выполнение!C269&amp;Выполнение!D269&amp;Выполнение!E269</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="10"/>
       <c r="C270" s="10"/>
@@ -14185,8 +16231,16 @@
         <v>0</v>
       </c>
       <c r="O270" s="4"/>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P270" s="4">
+        <f>Выполнение!B270</f>
+        <v>0</v>
+      </c>
+      <c r="Q270" s="4" t="str">
+        <f>Выполнение!C270&amp;Выполнение!D270&amp;Выполнение!E270</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="10"/>
       <c r="C271" s="10"/>
@@ -14223,8 +16277,16 @@
         <v>0</v>
       </c>
       <c r="O271" s="4"/>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P271" s="4">
+        <f>Выполнение!B271</f>
+        <v>0</v>
+      </c>
+      <c r="Q271" s="4" t="str">
+        <f>Выполнение!C271&amp;Выполнение!D271&amp;Выполнение!E271</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="10"/>
       <c r="C272" s="10"/>
@@ -14261,8 +16323,16 @@
         <v>0</v>
       </c>
       <c r="O272" s="4"/>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P272" s="4">
+        <f>Выполнение!B272</f>
+        <v>0</v>
+      </c>
+      <c r="Q272" s="4" t="str">
+        <f>Выполнение!C272&amp;Выполнение!D272&amp;Выполнение!E272</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="10"/>
       <c r="C273" s="10"/>
@@ -14299,8 +16369,16 @@
         <v>0</v>
       </c>
       <c r="O273" s="4"/>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P273" s="4">
+        <f>Выполнение!B273</f>
+        <v>0</v>
+      </c>
+      <c r="Q273" s="4" t="str">
+        <f>Выполнение!C273&amp;Выполнение!D273&amp;Выполнение!E273</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A274" s="10"/>
       <c r="B274" s="10"/>
       <c r="C274" s="10"/>
@@ -14337,8 +16415,16 @@
         <v>0</v>
       </c>
       <c r="O274" s="4"/>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P274" s="4">
+        <f>Выполнение!B274</f>
+        <v>0</v>
+      </c>
+      <c r="Q274" s="4" t="str">
+        <f>Выполнение!C274&amp;Выполнение!D274&amp;Выполнение!E274</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A275" s="10"/>
       <c r="B275" s="10"/>
       <c r="C275" s="10"/>
@@ -14375,8 +16461,16 @@
         <v>0</v>
       </c>
       <c r="O275" s="4"/>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P275" s="4">
+        <f>Выполнение!B275</f>
+        <v>0</v>
+      </c>
+      <c r="Q275" s="4" t="str">
+        <f>Выполнение!C275&amp;Выполнение!D275&amp;Выполнение!E275</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A276" s="10"/>
       <c r="B276" s="10"/>
       <c r="C276" s="10"/>
@@ -14413,8 +16507,16 @@
         <v>0</v>
       </c>
       <c r="O276" s="4"/>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P276" s="4">
+        <f>Выполнение!B276</f>
+        <v>0</v>
+      </c>
+      <c r="Q276" s="4" t="str">
+        <f>Выполнение!C276&amp;Выполнение!D276&amp;Выполнение!E276</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" s="10"/>
       <c r="C277" s="10"/>
@@ -14451,8 +16553,16 @@
         <v>0</v>
       </c>
       <c r="O277" s="4"/>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P277" s="4">
+        <f>Выполнение!B277</f>
+        <v>0</v>
+      </c>
+      <c r="Q277" s="4" t="str">
+        <f>Выполнение!C277&amp;Выполнение!D277&amp;Выполнение!E277</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A278" s="10"/>
       <c r="B278" s="10"/>
       <c r="C278" s="10"/>
@@ -14489,8 +16599,16 @@
         <v>0</v>
       </c>
       <c r="O278" s="4"/>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P278" s="4">
+        <f>Выполнение!B278</f>
+        <v>0</v>
+      </c>
+      <c r="Q278" s="4" t="str">
+        <f>Выполнение!C278&amp;Выполнение!D278&amp;Выполнение!E278</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A279" s="10"/>
       <c r="B279" s="10"/>
       <c r="C279" s="10"/>
@@ -14527,8 +16645,16 @@
         <v>0</v>
       </c>
       <c r="O279" s="4"/>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P279" s="4">
+        <f>Выполнение!B279</f>
+        <v>0</v>
+      </c>
+      <c r="Q279" s="4" t="str">
+        <f>Выполнение!C279&amp;Выполнение!D279&amp;Выполнение!E279</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A280" s="10"/>
       <c r="B280" s="10"/>
       <c r="C280" s="10"/>
@@ -14565,8 +16691,16 @@
         <v>0</v>
       </c>
       <c r="O280" s="4"/>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P280" s="4">
+        <f>Выполнение!B280</f>
+        <v>0</v>
+      </c>
+      <c r="Q280" s="4" t="str">
+        <f>Выполнение!C280&amp;Выполнение!D280&amp;Выполнение!E280</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A281" s="10"/>
       <c r="B281" s="10"/>
       <c r="C281" s="10"/>
@@ -14603,8 +16737,16 @@
         <v>0</v>
       </c>
       <c r="O281" s="4"/>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P281" s="4">
+        <f>Выполнение!B281</f>
+        <v>0</v>
+      </c>
+      <c r="Q281" s="4" t="str">
+        <f>Выполнение!C281&amp;Выполнение!D281&amp;Выполнение!E281</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A282" s="10"/>
       <c r="B282" s="10"/>
       <c r="C282" s="10"/>
@@ -14641,8 +16783,16 @@
         <v>0</v>
       </c>
       <c r="O282" s="4"/>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P282" s="4">
+        <f>Выполнение!B282</f>
+        <v>0</v>
+      </c>
+      <c r="Q282" s="4" t="str">
+        <f>Выполнение!C282&amp;Выполнение!D282&amp;Выполнение!E282</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A283" s="10"/>
       <c r="B283" s="10"/>
       <c r="C283" s="10"/>
@@ -14679,8 +16829,16 @@
         <v>0</v>
       </c>
       <c r="O283" s="4"/>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P283" s="4">
+        <f>Выполнение!B283</f>
+        <v>0</v>
+      </c>
+      <c r="Q283" s="4" t="str">
+        <f>Выполнение!C283&amp;Выполнение!D283&amp;Выполнение!E283</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A284" s="10"/>
       <c r="B284" s="10"/>
       <c r="C284" s="10"/>
@@ -14717,8 +16875,16 @@
         <v>0</v>
       </c>
       <c r="O284" s="4"/>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P284" s="4">
+        <f>Выполнение!B284</f>
+        <v>0</v>
+      </c>
+      <c r="Q284" s="4" t="str">
+        <f>Выполнение!C284&amp;Выполнение!D284&amp;Выполнение!E284</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A285" s="10"/>
       <c r="B285" s="10"/>
       <c r="C285" s="10"/>
@@ -14755,8 +16921,16 @@
         <v>0</v>
       </c>
       <c r="O285" s="4"/>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P285" s="4">
+        <f>Выполнение!B285</f>
+        <v>0</v>
+      </c>
+      <c r="Q285" s="4" t="str">
+        <f>Выполнение!C285&amp;Выполнение!D285&amp;Выполнение!E285</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A286" s="10"/>
       <c r="B286" s="10"/>
       <c r="C286" s="10"/>
@@ -14793,8 +16967,16 @@
         <v>0</v>
       </c>
       <c r="O286" s="4"/>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P286" s="4">
+        <f>Выполнение!B286</f>
+        <v>0</v>
+      </c>
+      <c r="Q286" s="4" t="str">
+        <f>Выполнение!C286&amp;Выполнение!D286&amp;Выполнение!E286</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A287" s="10"/>
       <c r="B287" s="10"/>
       <c r="C287" s="10"/>
@@ -14831,8 +17013,16 @@
         <v>0</v>
       </c>
       <c r="O287" s="4"/>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P287" s="4">
+        <f>Выполнение!B287</f>
+        <v>0</v>
+      </c>
+      <c r="Q287" s="4" t="str">
+        <f>Выполнение!C287&amp;Выполнение!D287&amp;Выполнение!E287</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A288" s="10"/>
       <c r="B288" s="10"/>
       <c r="C288" s="10"/>
@@ -14869,8 +17059,16 @@
         <v>0</v>
       </c>
       <c r="O288" s="4"/>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P288" s="4">
+        <f>Выполнение!B288</f>
+        <v>0</v>
+      </c>
+      <c r="Q288" s="4" t="str">
+        <f>Выполнение!C288&amp;Выполнение!D288&amp;Выполнение!E288</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="10"/>
       <c r="B289" s="10"/>
       <c r="C289" s="10"/>
@@ -14907,8 +17105,16 @@
         <v>0</v>
       </c>
       <c r="O289" s="4"/>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P289" s="4">
+        <f>Выполнение!B289</f>
+        <v>0</v>
+      </c>
+      <c r="Q289" s="4" t="str">
+        <f>Выполнение!C289&amp;Выполнение!D289&amp;Выполнение!E289</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="10"/>
       <c r="B290" s="10"/>
       <c r="C290" s="10"/>
@@ -14945,8 +17151,16 @@
         <v>0</v>
       </c>
       <c r="O290" s="4"/>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P290" s="4">
+        <f>Выполнение!B290</f>
+        <v>0</v>
+      </c>
+      <c r="Q290" s="4" t="str">
+        <f>Выполнение!C290&amp;Выполнение!D290&amp;Выполнение!E290</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="B291" s="10"/>
       <c r="C291" s="10"/>
@@ -14983,8 +17197,16 @@
         <v>0</v>
       </c>
       <c r="O291" s="4"/>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P291" s="4">
+        <f>Выполнение!B291</f>
+        <v>0</v>
+      </c>
+      <c r="Q291" s="4" t="str">
+        <f>Выполнение!C291&amp;Выполнение!D291&amp;Выполнение!E291</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" s="10"/>
       <c r="C292" s="10"/>
@@ -15021,8 +17243,16 @@
         <v>0</v>
       </c>
       <c r="O292" s="4"/>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P292" s="4">
+        <f>Выполнение!B292</f>
+        <v>0</v>
+      </c>
+      <c r="Q292" s="4" t="str">
+        <f>Выполнение!C292&amp;Выполнение!D292&amp;Выполнение!E292</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="10"/>
       <c r="C293" s="10"/>
@@ -15059,8 +17289,16 @@
         <v>0</v>
       </c>
       <c r="O293" s="4"/>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P293" s="4">
+        <f>Выполнение!B293</f>
+        <v>0</v>
+      </c>
+      <c r="Q293" s="4" t="str">
+        <f>Выполнение!C293&amp;Выполнение!D293&amp;Выполнение!E293</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A294" s="10"/>
       <c r="B294" s="10"/>
       <c r="C294" s="10"/>
@@ -15097,8 +17335,16 @@
         <v>0</v>
       </c>
       <c r="O294" s="4"/>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P294" s="4">
+        <f>Выполнение!B294</f>
+        <v>0</v>
+      </c>
+      <c r="Q294" s="4" t="str">
+        <f>Выполнение!C294&amp;Выполнение!D294&amp;Выполнение!E294</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="10"/>
       <c r="C295" s="10"/>
@@ -15135,8 +17381,16 @@
         <v>0</v>
       </c>
       <c r="O295" s="4"/>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P295" s="4">
+        <f>Выполнение!B295</f>
+        <v>0</v>
+      </c>
+      <c r="Q295" s="4" t="str">
+        <f>Выполнение!C295&amp;Выполнение!D295&amp;Выполнение!E295</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A296" s="10"/>
       <c r="B296" s="10"/>
       <c r="C296" s="10"/>
@@ -15173,8 +17427,16 @@
         <v>0</v>
       </c>
       <c r="O296" s="4"/>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P296" s="4">
+        <f>Выполнение!B296</f>
+        <v>0</v>
+      </c>
+      <c r="Q296" s="4" t="str">
+        <f>Выполнение!C296&amp;Выполнение!D296&amp;Выполнение!E296</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="10"/>
       <c r="C297" s="10"/>
@@ -15211,8 +17473,16 @@
         <v>0</v>
       </c>
       <c r="O297" s="4"/>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P297" s="4">
+        <f>Выполнение!B297</f>
+        <v>0</v>
+      </c>
+      <c r="Q297" s="4" t="str">
+        <f>Выполнение!C297&amp;Выполнение!D297&amp;Выполнение!E297</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A298" s="10"/>
       <c r="B298" s="10"/>
       <c r="C298" s="10"/>
@@ -15249,8 +17519,16 @@
         <v>0</v>
       </c>
       <c r="O298" s="4"/>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P298" s="4">
+        <f>Выполнение!B298</f>
+        <v>0</v>
+      </c>
+      <c r="Q298" s="4" t="str">
+        <f>Выполнение!C298&amp;Выполнение!D298&amp;Выполнение!E298</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A299" s="10"/>
       <c r="B299" s="10"/>
       <c r="C299" s="10"/>
@@ -15287,8 +17565,16 @@
         <v>0</v>
       </c>
       <c r="O299" s="4"/>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P299" s="4">
+        <f>Выполнение!B299</f>
+        <v>0</v>
+      </c>
+      <c r="Q299" s="4" t="str">
+        <f>Выполнение!C299&amp;Выполнение!D299&amp;Выполнение!E299</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A300" s="10"/>
       <c r="B300" s="10"/>
       <c r="C300" s="10"/>
@@ -15325,6 +17611,14 @@
         <v>0</v>
       </c>
       <c r="O300" s="4"/>
+      <c r="P300" s="4">
+        <f>Выполнение!B300</f>
+        <v>0</v>
+      </c>
+      <c r="Q300" s="4" t="str">
+        <f>Выполнение!C300&amp;Выполнение!D300&amp;Выполнение!E300</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
